--- a/teaching/traditional_assets/database/data/poland/poland_chemical_diversified.xlsx
+++ b/teaching/traditional_assets/database/data/poland/poland_chemical_diversified.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="wse_pce" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,28 +593,28 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0191</v>
+        <v>-0.0268</v>
       </c>
       <c r="E2">
-        <v>0.0382</v>
+        <v>-0.187</v>
       </c>
       <c r="G2">
-        <v>0.05422958272446825</v>
+        <v>0.07532894736842105</v>
       </c>
       <c r="H2">
-        <v>0.05422958272446825</v>
+        <v>0.07532894736842105</v>
       </c>
       <c r="I2">
-        <v>0.005403957624079494</v>
+        <v>0.01825657894736842</v>
       </c>
       <c r="J2">
-        <v>0.005403957624079494</v>
+        <v>0.01375558589870904</v>
       </c>
       <c r="K2">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="L2">
-        <v>0.01932131839584348</v>
+        <v>0.02006578947368421</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -636,70 +638,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>48.3</v>
+        <v>40.9</v>
       </c>
       <c r="V2">
-        <v>0.2327710843373494</v>
+        <v>0.1008382642998027</v>
       </c>
       <c r="W2">
-        <v>0.04047619047619048</v>
+        <v>0.04320113314447592</v>
       </c>
       <c r="X2">
-        <v>0.1146620517229116</v>
+        <v>0.09317959644528209</v>
       </c>
       <c r="Y2">
-        <v>-0.07418586124672114</v>
+        <v>-0.04997846330080617</v>
       </c>
       <c r="Z2">
-        <v>1.588073027522247</v>
+        <v>1.66438543662743</v>
       </c>
       <c r="AA2">
-        <v>0.008581879344673849</v>
+        <v>0.02289459684208896</v>
       </c>
       <c r="AB2">
-        <v>0.07599582925002324</v>
+        <v>0.06972470476976933</v>
       </c>
       <c r="AC2">
-        <v>-0.06741394990534939</v>
+        <v>-0.04683010792768037</v>
       </c>
       <c r="AD2">
-        <v>131.2</v>
+        <v>222.5</v>
       </c>
       <c r="AE2">
-        <v>38.0285124966472</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>169.2285124966472</v>
+        <v>222.5</v>
       </c>
       <c r="AG2">
-        <v>120.9285124966472</v>
+        <v>181.6</v>
       </c>
       <c r="AH2">
-        <v>0.4492054805598323</v>
+        <v>0.3542429549434803</v>
       </c>
       <c r="AI2">
-        <v>0.3361520221756893</v>
+        <v>0.2832951362363127</v>
       </c>
       <c r="AJ2">
-        <v>0.3682034534010859</v>
+        <v>0.3092643051771117</v>
       </c>
       <c r="AK2">
-        <v>0.2657019043550651</v>
+        <v>0.2439220953660174</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>4.67</v>
       </c>
       <c r="AM2">
-        <v>-11</v>
+        <v>-2.18</v>
       </c>
       <c r="AN2">
-        <v>3.236788868604135</v>
+        <v>5.022573363431151</v>
+      </c>
+      <c r="AO2">
+        <v>2.376873661670236</v>
       </c>
       <c r="AP2">
-        <v>2.983384627637223</v>
+        <v>4.099322799097066</v>
       </c>
       <c r="AQ2">
-        <v>-0.9363636363636364</v>
+        <v>-5.091743119266056</v>
       </c>
     </row>
     <row r="3">
@@ -719,28 +724,28 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0191</v>
+        <v>-0.0268</v>
       </c>
       <c r="E3">
-        <v>0.0382</v>
+        <v>-0.187</v>
       </c>
       <c r="G3">
-        <v>0.05422958272446825</v>
+        <v>0.07532894736842105</v>
       </c>
       <c r="H3">
-        <v>0.05422958272446825</v>
+        <v>0.07532894736842105</v>
       </c>
       <c r="I3">
-        <v>0.005403957624079494</v>
+        <v>0.01825657894736842</v>
       </c>
       <c r="J3">
-        <v>0.005403957624079494</v>
+        <v>0.01375558589870904</v>
       </c>
       <c r="K3">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="L3">
-        <v>0.01932131839584348</v>
+        <v>0.02006578947368421</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -764,70 +769,8791 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>48.3</v>
+        <v>40.9</v>
       </c>
       <c r="V3">
-        <v>0.2327710843373494</v>
+        <v>0.1008382642998027</v>
       </c>
       <c r="W3">
-        <v>0.04047619047619048</v>
+        <v>0.04320113314447592</v>
       </c>
       <c r="X3">
-        <v>0.1146620517229116</v>
+        <v>0.09317959644528209</v>
       </c>
       <c r="Y3">
-        <v>-0.07418586124672114</v>
+        <v>-0.04997846330080617</v>
       </c>
       <c r="Z3">
-        <v>1.588073027522247</v>
+        <v>1.66438543662743</v>
       </c>
       <c r="AA3">
-        <v>0.008581879344673849</v>
+        <v>0.02289459684208896</v>
       </c>
       <c r="AB3">
-        <v>0.07599582925002324</v>
+        <v>0.06972470476976933</v>
       </c>
       <c r="AC3">
-        <v>-0.06741394990534939</v>
+        <v>-0.04683010792768037</v>
       </c>
       <c r="AD3">
-        <v>131.2</v>
+        <v>222.5</v>
       </c>
       <c r="AE3">
-        <v>38.0285124966472</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>169.2285124966472</v>
+        <v>222.5</v>
       </c>
       <c r="AG3">
-        <v>120.9285124966472</v>
+        <v>181.6</v>
       </c>
       <c r="AH3">
-        <v>0.4492054805598323</v>
+        <v>0.3542429549434803</v>
       </c>
       <c r="AI3">
-        <v>0.3361520221756893</v>
+        <v>0.2832951362363127</v>
       </c>
       <c r="AJ3">
-        <v>0.3682034534010859</v>
+        <v>0.3092643051771117</v>
       </c>
       <c r="AK3">
-        <v>0.2657019043550651</v>
+        <v>0.2439220953660174</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>4.67</v>
       </c>
       <c r="AM3">
-        <v>-11</v>
+        <v>-2.18</v>
       </c>
       <c r="AN3">
-        <v>3.236788868604135</v>
+        <v>5.022573363431151</v>
+      </c>
+      <c r="AO3">
+        <v>2.376873661670236</v>
       </c>
       <c r="AP3">
-        <v>2.983384627637223</v>
+        <v>4.099322799097066</v>
       </c>
       <c r="AQ3">
-        <v>-0.9363636363636364</v>
+        <v>-5.091743119266056</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Grupa Azoty Zaklady Chemiczne Police S.A. (WSE:PCE)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>WSE:PCE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Chemical (Diversified)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.35424295494348</v>
+      </c>
+      <c r="F2">
+        <v>0.09</v>
+      </c>
+      <c r="G2">
+        <v>405.6</v>
+      </c>
+      <c r="H2">
+        <v>600.986436697438</v>
+      </c>
+      <c r="I2">
+        <v>587.2</v>
+      </c>
+      <c r="J2">
+        <v>616.615436697438</v>
+      </c>
+      <c r="K2">
+        <v>222.5</v>
+      </c>
+      <c r="L2">
+        <v>56.529</v>
+      </c>
+      <c r="M2">
+        <v>0.0697247047697693</v>
+      </c>
+      <c r="N2">
+        <v>0.0668421640931423</v>
+      </c>
+      <c r="O2">
+        <v>0.0269682820120706</v>
+      </c>
+      <c r="P2">
+        <v>0.014418</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>B2/B</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.09317959644528211</v>
+      </c>
+      <c r="T2">
+        <v>0.0720269715309256</v>
+      </c>
+      <c r="U2">
+        <v>1.51371580649974</v>
+      </c>
+      <c r="V2">
+        <v>1.13198933142414</v>
+      </c>
+      <c r="W2">
+        <v>11.03142644692065</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>405.6</v>
+      </c>
+      <c r="AB2">
+        <v>0.05541304126250898</v>
+      </c>
+      <c r="AC2">
+        <v>0.0332941753235439</v>
+      </c>
+      <c r="AD2">
+        <v>0.19</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>44.3</v>
+      </c>
+      <c r="AH2">
+        <v>33.2</v>
+      </c>
+      <c r="AI2">
+        <v>362.7</v>
+      </c>
+      <c r="AJ2">
+        <v>222.5</v>
+      </c>
+      <c r="AK2">
+        <v>222.5</v>
+      </c>
+      <c r="AL2">
+        <v>4.67</v>
+      </c>
+      <c r="AM2">
+        <v>222.5</v>
+      </c>
+      <c r="AN2">
+        <v>40.9</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.06737462009679752</v>
+      </c>
+      <c r="C2">
+        <v>651.86201028382</v>
+      </c>
+      <c r="D2">
+        <v>610.9620102838201</v>
+      </c>
+      <c r="E2">
+        <v>-222.5</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>40.9</v>
+      </c>
+      <c r="H2">
+        <v>405.6</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>44.3</v>
+      </c>
+      <c r="K2">
+        <v>33.2</v>
+      </c>
+      <c r="L2">
+        <v>11.1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>11.1</v>
+      </c>
+      <c r="O2">
+        <v>2.109</v>
+      </c>
+      <c r="P2">
+        <v>8.991000000000001</v>
+      </c>
+      <c r="Q2">
+        <v>42.191</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.06737462009679752</v>
+      </c>
+      <c r="T2">
+        <v>1.048031632511917</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.19</v>
+      </c>
+      <c r="W2">
+        <v>0.013122</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.06730249831861361</v>
+      </c>
+      <c r="C3">
+        <v>646.3406959501589</v>
+      </c>
+      <c r="D3">
+        <v>611.7216959501588</v>
+      </c>
+      <c r="E3">
+        <v>-216.219</v>
+      </c>
+      <c r="F3">
+        <v>6.281000000000001</v>
+      </c>
+      <c r="G3">
+        <v>40.9</v>
+      </c>
+      <c r="H3">
+        <v>405.6</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>44.3</v>
+      </c>
+      <c r="K3">
+        <v>33.2</v>
+      </c>
+      <c r="L3">
+        <v>11.1</v>
+      </c>
+      <c r="M3">
+        <v>0.1017522</v>
+      </c>
+      <c r="N3">
+        <v>10.9982478</v>
+      </c>
+      <c r="O3">
+        <v>2.089667082000001</v>
+      </c>
+      <c r="P3">
+        <v>8.908580718000001</v>
+      </c>
+      <c r="Q3">
+        <v>42.108580718</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.06784977607940769</v>
+      </c>
+      <c r="T3">
+        <v>1.056606436777924</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.19</v>
+      </c>
+      <c r="W3">
+        <v>0.013122</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>109.0885504195487</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.0672303765404297</v>
+      </c>
+      <c r="C4">
+        <v>640.8212731934003</v>
+      </c>
+      <c r="D4">
+        <v>612.4832731934004</v>
+      </c>
+      <c r="E4">
+        <v>-209.938</v>
+      </c>
+      <c r="F4">
+        <v>12.562</v>
+      </c>
+      <c r="G4">
+        <v>40.9</v>
+      </c>
+      <c r="H4">
+        <v>405.6</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>44.3</v>
+      </c>
+      <c r="K4">
+        <v>33.2</v>
+      </c>
+      <c r="L4">
+        <v>11.1</v>
+      </c>
+      <c r="M4">
+        <v>0.2035044</v>
+      </c>
+      <c r="N4">
+        <v>10.8964956</v>
+      </c>
+      <c r="O4">
+        <v>2.070334164</v>
+      </c>
+      <c r="P4">
+        <v>8.826161436000001</v>
+      </c>
+      <c r="Q4">
+        <v>42.026161436</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.06833462912288744</v>
+      </c>
+      <c r="T4">
+        <v>1.065356237049359</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.19</v>
+      </c>
+      <c r="W4">
+        <v>0.013122</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>54.54427520977434</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.06715825476224578</v>
+      </c>
+      <c r="C5">
+        <v>635.3037490872401</v>
+      </c>
+      <c r="D5">
+        <v>613.2467490872401</v>
+      </c>
+      <c r="E5">
+        <v>-203.657</v>
+      </c>
+      <c r="F5">
+        <v>18.843</v>
+      </c>
+      <c r="G5">
+        <v>40.9</v>
+      </c>
+      <c r="H5">
+        <v>405.6</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>44.3</v>
+      </c>
+      <c r="K5">
+        <v>33.2</v>
+      </c>
+      <c r="L5">
+        <v>11.1</v>
+      </c>
+      <c r="M5">
+        <v>0.3052566</v>
+      </c>
+      <c r="N5">
+        <v>10.7947434</v>
+      </c>
+      <c r="O5">
+        <v>2.051001246</v>
+      </c>
+      <c r="P5">
+        <v>8.743742154000001</v>
+      </c>
+      <c r="Q5">
+        <v>41.943742154</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.06882947913633586</v>
+      </c>
+      <c r="T5">
+        <v>1.074286445573814</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.19</v>
+      </c>
+      <c r="W5">
+        <v>0.013122</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>36.36285013984956</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.06708613298406187</v>
+      </c>
+      <c r="C6">
+        <v>629.7881307406875</v>
+      </c>
+      <c r="D6">
+        <v>614.0121307406876</v>
+      </c>
+      <c r="E6">
+        <v>-197.376</v>
+      </c>
+      <c r="F6">
+        <v>25.124</v>
+      </c>
+      <c r="G6">
+        <v>40.9</v>
+      </c>
+      <c r="H6">
+        <v>405.6</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>44.3</v>
+      </c>
+      <c r="K6">
+        <v>33.2</v>
+      </c>
+      <c r="L6">
+        <v>11.1</v>
+      </c>
+      <c r="M6">
+        <v>0.4070088</v>
+      </c>
+      <c r="N6">
+        <v>10.6929912</v>
+      </c>
+      <c r="O6">
+        <v>2.031668328</v>
+      </c>
+      <c r="P6">
+        <v>8.661322872000001</v>
+      </c>
+      <c r="Q6">
+        <v>41.861322872</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.06933463852506444</v>
+      </c>
+      <c r="T6">
+        <v>1.083402700109195</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.19</v>
+      </c>
+      <c r="W6">
+        <v>0.013122</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>27.27213760488717</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.06701401120587795</v>
+      </c>
+      <c r="C7">
+        <v>624.2744252982873</v>
+      </c>
+      <c r="D7">
+        <v>614.7794252982873</v>
+      </c>
+      <c r="E7">
+        <v>-191.095</v>
+      </c>
+      <c r="F7">
+        <v>31.405</v>
+      </c>
+      <c r="G7">
+        <v>40.9</v>
+      </c>
+      <c r="H7">
+        <v>405.6</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>44.3</v>
+      </c>
+      <c r="K7">
+        <v>33.2</v>
+      </c>
+      <c r="L7">
+        <v>11.1</v>
+      </c>
+      <c r="M7">
+        <v>0.508761</v>
+      </c>
+      <c r="N7">
+        <v>10.591239</v>
+      </c>
+      <c r="O7">
+        <v>2.01233541</v>
+      </c>
+      <c r="P7">
+        <v>8.578903590000001</v>
+      </c>
+      <c r="Q7">
+        <v>41.77890359</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.06985043284829258</v>
+      </c>
+      <c r="T7">
+        <v>1.092710875792689</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.19</v>
+      </c>
+      <c r="W7">
+        <v>0.013122</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>21.81771008390974</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.06694188942769401</v>
+      </c>
+      <c r="C8">
+        <v>618.7626399403406</v>
+      </c>
+      <c r="D8">
+        <v>615.5486399403406</v>
+      </c>
+      <c r="E8">
+        <v>-184.814</v>
+      </c>
+      <c r="F8">
+        <v>37.686</v>
+      </c>
+      <c r="G8">
+        <v>40.9</v>
+      </c>
+      <c r="H8">
+        <v>405.6</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>44.3</v>
+      </c>
+      <c r="K8">
+        <v>33.2</v>
+      </c>
+      <c r="L8">
+        <v>11.1</v>
+      </c>
+      <c r="M8">
+        <v>0.6105132</v>
+      </c>
+      <c r="N8">
+        <v>10.4894868</v>
+      </c>
+      <c r="O8">
+        <v>1.993002492</v>
+      </c>
+      <c r="P8">
+        <v>8.496484308000001</v>
+      </c>
+      <c r="Q8">
+        <v>41.696484308</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.07037720151882343</v>
+      </c>
+      <c r="T8">
+        <v>1.102217097767321</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.19</v>
+      </c>
+      <c r="W8">
+        <v>0.013122</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>18.18142506992478</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.06686976764951011</v>
+      </c>
+      <c r="C9">
+        <v>613.2527818831302</v>
+      </c>
+      <c r="D9">
+        <v>616.3197818831302</v>
+      </c>
+      <c r="E9">
+        <v>-178.533</v>
+      </c>
+      <c r="F9">
+        <v>43.96700000000001</v>
+      </c>
+      <c r="G9">
+        <v>40.9</v>
+      </c>
+      <c r="H9">
+        <v>405.6</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>44.3</v>
+      </c>
+      <c r="K9">
+        <v>33.2</v>
+      </c>
+      <c r="L9">
+        <v>11.1</v>
+      </c>
+      <c r="M9">
+        <v>0.7122654</v>
+      </c>
+      <c r="N9">
+        <v>10.3877346</v>
+      </c>
+      <c r="O9">
+        <v>1.973669574</v>
+      </c>
+      <c r="P9">
+        <v>8.414065026000001</v>
+      </c>
+      <c r="Q9">
+        <v>41.614065026</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.07091529854786034</v>
+      </c>
+      <c r="T9">
+        <v>1.111927754623128</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.19</v>
+      </c>
+      <c r="W9">
+        <v>0.013122</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>15.5840786313641</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.06690132587132622</v>
+      </c>
+      <c r="C10">
+        <v>606.6341168017781</v>
+      </c>
+      <c r="D10">
+        <v>615.9821168017781</v>
+      </c>
+      <c r="E10">
+        <v>-172.252</v>
+      </c>
+      <c r="F10">
+        <v>50.248</v>
+      </c>
+      <c r="G10">
+        <v>40.9</v>
+      </c>
+      <c r="H10">
+        <v>405.6</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>44.3</v>
+      </c>
+      <c r="K10">
+        <v>33.2</v>
+      </c>
+      <c r="L10">
+        <v>11.1</v>
+      </c>
+      <c r="M10">
+        <v>0.8944144000000001</v>
+      </c>
+      <c r="N10">
+        <v>10.2055856</v>
+      </c>
+      <c r="O10">
+        <v>1.939061264</v>
+      </c>
+      <c r="P10">
+        <v>8.266524336</v>
+      </c>
+      <c r="Q10">
+        <v>41.46652433599999</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.07146509333839805</v>
+      </c>
+      <c r="T10">
+        <v>1.121849512714931</v>
+      </c>
+      <c r="U10">
+        <v>0.0178</v>
+      </c>
+      <c r="V10">
+        <v>0.19</v>
+      </c>
+      <c r="W10">
+        <v>0.014418</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>12.41035475278573</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.0668421640931423</v>
+      </c>
+      <c r="C11">
+        <v>600.9864366974376</v>
+      </c>
+      <c r="D11">
+        <v>616.6154366974376</v>
+      </c>
+      <c r="E11">
+        <v>-165.971</v>
+      </c>
+      <c r="F11">
+        <v>56.529</v>
+      </c>
+      <c r="G11">
+        <v>40.9</v>
+      </c>
+      <c r="H11">
+        <v>405.6</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>44.3</v>
+      </c>
+      <c r="K11">
+        <v>33.2</v>
+      </c>
+      <c r="L11">
+        <v>11.1</v>
+      </c>
+      <c r="M11">
+        <v>1.0062162</v>
+      </c>
+      <c r="N11">
+        <v>10.0937838</v>
+      </c>
+      <c r="O11">
+        <v>1.917818922</v>
+      </c>
+      <c r="P11">
+        <v>8.175964878</v>
+      </c>
+      <c r="Q11">
+        <v>41.375964878</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.07202697153092559</v>
+      </c>
+      <c r="T11">
+        <v>1.131989331424136</v>
+      </c>
+      <c r="U11">
+        <v>0.0178</v>
+      </c>
+      <c r="V11">
+        <v>0.19</v>
+      </c>
+      <c r="W11">
+        <v>0.014418</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>11.03142644692065</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.06696120231495838</v>
+      </c>
+      <c r="C12">
+        <v>593.4324697425018</v>
+      </c>
+      <c r="D12">
+        <v>615.3424697425019</v>
+      </c>
+      <c r="E12">
+        <v>-159.69</v>
+      </c>
+      <c r="F12">
+        <v>62.81</v>
+      </c>
+      <c r="G12">
+        <v>40.9</v>
+      </c>
+      <c r="H12">
+        <v>405.6</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>44.3</v>
+      </c>
+      <c r="K12">
+        <v>33.2</v>
+      </c>
+      <c r="L12">
+        <v>11.1</v>
+      </c>
+      <c r="M12">
+        <v>1.2562</v>
+      </c>
+      <c r="N12">
+        <v>9.843800000000002</v>
+      </c>
+      <c r="O12">
+        <v>1.870322</v>
+      </c>
+      <c r="P12">
+        <v>7.973478000000002</v>
+      </c>
+      <c r="Q12">
+        <v>41.173478</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.07260133590550931</v>
+      </c>
+      <c r="T12">
+        <v>1.14235447943799</v>
+      </c>
+      <c r="U12">
+        <v>0.02</v>
+      </c>
+      <c r="V12">
+        <v>0.19</v>
+      </c>
+      <c r="W12">
+        <v>0.0162</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>8.836172583983444</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.06691986053677446</v>
+      </c>
+      <c r="C13">
+        <v>587.5929729265473</v>
+      </c>
+      <c r="D13">
+        <v>615.7839729265473</v>
+      </c>
+      <c r="E13">
+        <v>-153.409</v>
+      </c>
+      <c r="F13">
+        <v>69.09100000000001</v>
+      </c>
+      <c r="G13">
+        <v>40.9</v>
+      </c>
+      <c r="H13">
+        <v>405.6</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>44.3</v>
+      </c>
+      <c r="K13">
+        <v>33.2</v>
+      </c>
+      <c r="L13">
+        <v>11.1</v>
+      </c>
+      <c r="M13">
+        <v>1.38182</v>
+      </c>
+      <c r="N13">
+        <v>9.718180000000002</v>
+      </c>
+      <c r="O13">
+        <v>1.8464542</v>
+      </c>
+      <c r="P13">
+        <v>7.871725800000002</v>
+      </c>
+      <c r="Q13">
+        <v>41.0717258</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.07318860734469039</v>
+      </c>
+      <c r="T13">
+        <v>1.152952552126313</v>
+      </c>
+      <c r="U13">
+        <v>0.02</v>
+      </c>
+      <c r="V13">
+        <v>0.19</v>
+      </c>
+      <c r="W13">
+        <v>0.0162</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>8.032884167257677</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.06698543875859055</v>
+      </c>
+      <c r="C14">
+        <v>580.6119346008207</v>
+      </c>
+      <c r="D14">
+        <v>615.0839346008207</v>
+      </c>
+      <c r="E14">
+        <v>-147.128</v>
+      </c>
+      <c r="F14">
+        <v>75.372</v>
+      </c>
+      <c r="G14">
+        <v>40.9</v>
+      </c>
+      <c r="H14">
+        <v>405.6</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>44.3</v>
+      </c>
+      <c r="K14">
+        <v>33.2</v>
+      </c>
+      <c r="L14">
+        <v>11.1</v>
+      </c>
+      <c r="M14">
+        <v>1.5903492</v>
+      </c>
+      <c r="N14">
+        <v>9.509650800000001</v>
+      </c>
+      <c r="O14">
+        <v>1.806833652</v>
+      </c>
+      <c r="P14">
+        <v>7.702817148000001</v>
+      </c>
+      <c r="Q14">
+        <v>40.902817148</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.07378922586203471</v>
+      </c>
+      <c r="T14">
+        <v>1.163791490103006</v>
+      </c>
+      <c r="U14">
+        <v>0.0211</v>
+      </c>
+      <c r="V14">
+        <v>0.19</v>
+      </c>
+      <c r="W14">
+        <v>0.017091</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>6.979599197459275</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.06695300698040661</v>
+      </c>
+      <c r="C15">
+        <v>574.6769402434795</v>
+      </c>
+      <c r="D15">
+        <v>615.4299402434796</v>
+      </c>
+      <c r="E15">
+        <v>-140.847</v>
+      </c>
+      <c r="F15">
+        <v>81.65300000000001</v>
+      </c>
+      <c r="G15">
+        <v>40.9</v>
+      </c>
+      <c r="H15">
+        <v>405.6</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>44.3</v>
+      </c>
+      <c r="K15">
+        <v>33.2</v>
+      </c>
+      <c r="L15">
+        <v>11.1</v>
+      </c>
+      <c r="M15">
+        <v>1.7228783</v>
+      </c>
+      <c r="N15">
+        <v>9.377121700000002</v>
+      </c>
+      <c r="O15">
+        <v>1.781653123</v>
+      </c>
+      <c r="P15">
+        <v>7.595468577000002</v>
+      </c>
+      <c r="Q15">
+        <v>40.79546857699999</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.07440365170161681</v>
+      </c>
+      <c r="T15">
+        <v>1.17487959906767</v>
+      </c>
+      <c r="U15">
+        <v>0.0211</v>
+      </c>
+      <c r="V15">
+        <v>0.19</v>
+      </c>
+      <c r="W15">
+        <v>0.017091</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>6.44270695150087</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.0670906752022227</v>
+      </c>
+      <c r="C16">
+        <v>566.9298707568501</v>
+      </c>
+      <c r="D16">
+        <v>613.96387075685</v>
+      </c>
+      <c r="E16">
+        <v>-134.566</v>
+      </c>
+      <c r="F16">
+        <v>87.93400000000001</v>
+      </c>
+      <c r="G16">
+        <v>40.9</v>
+      </c>
+      <c r="H16">
+        <v>405.6</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>44.3</v>
+      </c>
+      <c r="K16">
+        <v>33.2</v>
+      </c>
+      <c r="L16">
+        <v>11.1</v>
+      </c>
+      <c r="M16">
+        <v>1.9873084</v>
+      </c>
+      <c r="N16">
+        <v>9.112691600000002</v>
+      </c>
+      <c r="O16">
+        <v>1.731411404</v>
+      </c>
+      <c r="P16">
+        <v>7.381280196000001</v>
+      </c>
+      <c r="Q16">
+        <v>40.58128019599999</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.07503236651421245</v>
+      </c>
+      <c r="T16">
+        <v>1.186225571031512</v>
+      </c>
+      <c r="U16">
+        <v>0.0226</v>
+      </c>
+      <c r="V16">
+        <v>0.19</v>
+      </c>
+      <c r="W16">
+        <v>0.018306</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>5.585444111241115</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.0670703934240388</v>
+      </c>
+      <c r="C17">
+        <v>560.8644185193209</v>
+      </c>
+      <c r="D17">
+        <v>614.179418519321</v>
+      </c>
+      <c r="E17">
+        <v>-128.285</v>
+      </c>
+      <c r="F17">
+        <v>94.215</v>
+      </c>
+      <c r="G17">
+        <v>40.9</v>
+      </c>
+      <c r="H17">
+        <v>405.6</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>44.3</v>
+      </c>
+      <c r="K17">
+        <v>33.2</v>
+      </c>
+      <c r="L17">
+        <v>11.1</v>
+      </c>
+      <c r="M17">
+        <v>2.129259</v>
+      </c>
+      <c r="N17">
+        <v>8.970741000000002</v>
+      </c>
+      <c r="O17">
+        <v>1.70444079</v>
+      </c>
+      <c r="P17">
+        <v>7.266300210000002</v>
+      </c>
+      <c r="Q17">
+        <v>40.46630021</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.07567587461651624</v>
+      </c>
+      <c r="T17">
+        <v>1.197838507041562</v>
+      </c>
+      <c r="U17">
+        <v>0.0226</v>
+      </c>
+      <c r="V17">
+        <v>0.19</v>
+      </c>
+      <c r="W17">
+        <v>0.018306</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>5.213081170491708</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.06705011164585488</v>
+      </c>
+      <c r="C18">
+        <v>554.799117682085</v>
+      </c>
+      <c r="D18">
+        <v>614.395117682085</v>
+      </c>
+      <c r="E18">
+        <v>-122.004</v>
+      </c>
+      <c r="F18">
+        <v>100.496</v>
+      </c>
+      <c r="G18">
+        <v>40.9</v>
+      </c>
+      <c r="H18">
+        <v>405.6</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>44.3</v>
+      </c>
+      <c r="K18">
+        <v>33.2</v>
+      </c>
+      <c r="L18">
+        <v>11.1</v>
+      </c>
+      <c r="M18">
+        <v>2.2712096</v>
+      </c>
+      <c r="N18">
+        <v>8.828790400000001</v>
+      </c>
+      <c r="O18">
+        <v>1.677470176</v>
+      </c>
+      <c r="P18">
+        <v>7.151320224000001</v>
+      </c>
+      <c r="Q18">
+        <v>40.351320224</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.07633470434030344</v>
+      </c>
+      <c r="T18">
+        <v>1.209727941528042</v>
+      </c>
+      <c r="U18">
+        <v>0.0226</v>
+      </c>
+      <c r="V18">
+        <v>0.19</v>
+      </c>
+      <c r="W18">
+        <v>0.018306</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>4.887263597335975</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.06702982986767098</v>
+      </c>
+      <c r="C19">
+        <v>548.7339684047123</v>
+      </c>
+      <c r="D19">
+        <v>614.6109684047124</v>
+      </c>
+      <c r="E19">
+        <v>-115.723</v>
+      </c>
+      <c r="F19">
+        <v>106.777</v>
+      </c>
+      <c r="G19">
+        <v>40.9</v>
+      </c>
+      <c r="H19">
+        <v>405.6</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>44.3</v>
+      </c>
+      <c r="K19">
+        <v>33.2</v>
+      </c>
+      <c r="L19">
+        <v>11.1</v>
+      </c>
+      <c r="M19">
+        <v>2.4131602</v>
+      </c>
+      <c r="N19">
+        <v>8.686839800000001</v>
+      </c>
+      <c r="O19">
+        <v>1.650499562</v>
+      </c>
+      <c r="P19">
+        <v>7.036340238000001</v>
+      </c>
+      <c r="Q19">
+        <v>40.236340238</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.07700940947912165</v>
+      </c>
+      <c r="T19">
+        <v>1.221903868411786</v>
+      </c>
+      <c r="U19">
+        <v>0.0226</v>
+      </c>
+      <c r="V19">
+        <v>0.19</v>
+      </c>
+      <c r="W19">
+        <v>0.018306</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>4.599777503375035</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.08017388553276145</v>
+      </c>
+      <c r="C20">
+        <v>428.4690839265231</v>
+      </c>
+      <c r="D20">
+        <v>500.6270839265231</v>
+      </c>
+      <c r="E20">
+        <v>-109.442</v>
+      </c>
+      <c r="F20">
+        <v>113.058</v>
+      </c>
+      <c r="G20">
+        <v>40.9</v>
+      </c>
+      <c r="H20">
+        <v>405.6</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>44.3</v>
+      </c>
+      <c r="K20">
+        <v>33.2</v>
+      </c>
+      <c r="L20">
+        <v>11.1</v>
+      </c>
+      <c r="M20">
+        <v>12.323322</v>
+      </c>
+      <c r="N20">
+        <v>-1.223322</v>
+      </c>
+      <c r="O20">
+        <v>-0.2324311799999999</v>
+      </c>
+      <c r="P20">
+        <v>-0.9908908199999996</v>
+      </c>
+      <c r="Q20">
+        <v>32.20910918</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.07794101355448189</v>
+      </c>
+      <c r="T20">
+        <v>1.238715868874763</v>
+      </c>
+      <c r="U20">
+        <v>0.109</v>
+      </c>
+      <c r="V20">
+        <v>0.1711389185480993</v>
+      </c>
+      <c r="W20">
+        <v>0.09034585787825718</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>0.9007311502531542</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.08117088553276144</v>
+      </c>
+      <c r="C21">
+        <v>415.2433357301589</v>
+      </c>
+      <c r="D21">
+        <v>493.6823357301589</v>
+      </c>
+      <c r="E21">
+        <v>-103.161</v>
+      </c>
+      <c r="F21">
+        <v>119.339</v>
+      </c>
+      <c r="G21">
+        <v>40.9</v>
+      </c>
+      <c r="H21">
+        <v>405.6</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>44.3</v>
+      </c>
+      <c r="K21">
+        <v>33.2</v>
+      </c>
+      <c r="L21">
+        <v>11.1</v>
+      </c>
+      <c r="M21">
+        <v>13.007951</v>
+      </c>
+      <c r="N21">
+        <v>-1.907950999999999</v>
+      </c>
+      <c r="O21">
+        <v>-0.3625106899999998</v>
+      </c>
+      <c r="P21">
+        <v>-1.545440309999999</v>
+      </c>
+      <c r="Q21">
+        <v>31.65455969</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.0787884334749076</v>
+      </c>
+      <c r="T21">
+        <v>1.25400865737939</v>
+      </c>
+      <c r="U21">
+        <v>0.109</v>
+      </c>
+      <c r="V21">
+        <v>0.1621316070455678</v>
+      </c>
+      <c r="W21">
+        <v>0.0913276548320331</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>0.8533242476082514</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.08216788553276144</v>
+      </c>
+      <c r="C22">
+        <v>402.2076277387808</v>
+      </c>
+      <c r="D22">
+        <v>486.9276277387808</v>
+      </c>
+      <c r="E22">
+        <v>-96.88</v>
+      </c>
+      <c r="F22">
+        <v>125.62</v>
+      </c>
+      <c r="G22">
+        <v>40.9</v>
+      </c>
+      <c r="H22">
+        <v>405.6</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>44.3</v>
+      </c>
+      <c r="K22">
+        <v>33.2</v>
+      </c>
+      <c r="L22">
+        <v>11.1</v>
+      </c>
+      <c r="M22">
+        <v>13.69258</v>
+      </c>
+      <c r="N22">
+        <v>-2.59258</v>
+      </c>
+      <c r="O22">
+        <v>-0.4925902</v>
+      </c>
+      <c r="P22">
+        <v>-2.0999898</v>
+      </c>
+      <c r="Q22">
+        <v>31.1000102</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.07965703889334394</v>
+      </c>
+      <c r="T22">
+        <v>1.269683765596632</v>
+      </c>
+      <c r="U22">
+        <v>0.109</v>
+      </c>
+      <c r="V22">
+        <v>0.1540250266932894</v>
+      </c>
+      <c r="W22">
+        <v>0.09221127209043146</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>0.8106580352278387</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.09011500576273446</v>
+      </c>
+      <c r="C23">
+        <v>348.0435351817296</v>
+      </c>
+      <c r="D23">
+        <v>439.0445351817297</v>
+      </c>
+      <c r="E23">
+        <v>-90.59899999999999</v>
+      </c>
+      <c r="F23">
+        <v>131.901</v>
+      </c>
+      <c r="G23">
+        <v>40.9</v>
+      </c>
+      <c r="H23">
+        <v>405.6</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>44.3</v>
+      </c>
+      <c r="K23">
+        <v>33.2</v>
+      </c>
+      <c r="L23">
+        <v>11.1</v>
+      </c>
+      <c r="M23">
+        <v>18.4925202</v>
+      </c>
+      <c r="N23">
+        <v>-7.3925202</v>
+      </c>
+      <c r="O23">
+        <v>-1.404578838</v>
+      </c>
+      <c r="P23">
+        <v>-5.987941362</v>
+      </c>
+      <c r="Q23">
+        <v>27.21205863799999</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.0810515839805673</v>
+      </c>
+      <c r="T23">
+        <v>1.29485013537982</v>
+      </c>
+      <c r="U23">
+        <v>0.1402</v>
+      </c>
+      <c r="V23">
+        <v>0.1140461103835917</v>
+      </c>
+      <c r="W23">
+        <v>0.1242107353242204</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>0.6002426862294302</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.09142400576273448</v>
+      </c>
+      <c r="C24">
+        <v>334.7644681583882</v>
+      </c>
+      <c r="D24">
+        <v>432.0464681583882</v>
+      </c>
+      <c r="E24">
+        <v>-84.31799999999998</v>
+      </c>
+      <c r="F24">
+        <v>138.182</v>
+      </c>
+      <c r="G24">
+        <v>40.9</v>
+      </c>
+      <c r="H24">
+        <v>405.6</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>44.3</v>
+      </c>
+      <c r="K24">
+        <v>33.2</v>
+      </c>
+      <c r="L24">
+        <v>11.1</v>
+      </c>
+      <c r="M24">
+        <v>19.3731164</v>
+      </c>
+      <c r="N24">
+        <v>-8.273116399999999</v>
+      </c>
+      <c r="O24">
+        <v>-1.571892116</v>
+      </c>
+      <c r="P24">
+        <v>-6.701224283999999</v>
+      </c>
+      <c r="Q24">
+        <v>26.498775716</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.08197147608288229</v>
+      </c>
+      <c r="T24">
+        <v>1.3114507781411</v>
+      </c>
+      <c r="U24">
+        <v>0.1402</v>
+      </c>
+      <c r="V24">
+        <v>0.1088621962752467</v>
+      </c>
+      <c r="W24">
+        <v>0.1249375200822104</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>0.5729589277644562</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.09273300576273447</v>
+      </c>
+      <c r="C25">
+        <v>321.7049897654651</v>
+      </c>
+      <c r="D25">
+        <v>425.2679897654651</v>
+      </c>
+      <c r="E25">
+        <v>-78.03699999999998</v>
+      </c>
+      <c r="F25">
+        <v>144.463</v>
+      </c>
+      <c r="G25">
+        <v>40.9</v>
+      </c>
+      <c r="H25">
+        <v>405.6</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>44.3</v>
+      </c>
+      <c r="K25">
+        <v>33.2</v>
+      </c>
+      <c r="L25">
+        <v>11.1</v>
+      </c>
+      <c r="M25">
+        <v>20.2537126</v>
+      </c>
+      <c r="N25">
+        <v>-9.153712600000002</v>
+      </c>
+      <c r="O25">
+        <v>-1.739205394000001</v>
+      </c>
+      <c r="P25">
+        <v>-7.414507206000001</v>
+      </c>
+      <c r="Q25">
+        <v>25.78549279399999</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.08291526148655608</v>
+      </c>
+      <c r="T25">
+        <v>1.328482606428647</v>
+      </c>
+      <c r="U25">
+        <v>0.1402</v>
+      </c>
+      <c r="V25">
+        <v>0.1041290573067577</v>
+      </c>
+      <c r="W25">
+        <v>0.1256011061655926</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.5480476700355668</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.09404200576273446</v>
+      </c>
+      <c r="C26">
+        <v>308.8549241221335</v>
+      </c>
+      <c r="D26">
+        <v>418.6989241221335</v>
+      </c>
+      <c r="E26">
+        <v>-71.756</v>
+      </c>
+      <c r="F26">
+        <v>150.744</v>
+      </c>
+      <c r="G26">
+        <v>40.9</v>
+      </c>
+      <c r="H26">
+        <v>405.6</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>44.3</v>
+      </c>
+      <c r="K26">
+        <v>33.2</v>
+      </c>
+      <c r="L26">
+        <v>11.1</v>
+      </c>
+      <c r="M26">
+        <v>21.1343088</v>
+      </c>
+      <c r="N26">
+        <v>-10.0343088</v>
+      </c>
+      <c r="O26">
+        <v>-1.906518672</v>
+      </c>
+      <c r="P26">
+        <v>-8.127790127999999</v>
+      </c>
+      <c r="Q26">
+        <v>25.07220987199999</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.08388388334822128</v>
+      </c>
+      <c r="T26">
+        <v>1.34596264072376</v>
+      </c>
+      <c r="U26">
+        <v>0.1402</v>
+      </c>
+      <c r="V26">
+        <v>0.0997903465856428</v>
+      </c>
+      <c r="W26">
+        <v>0.1262093934086929</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.5252123504507515</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.09535100576273446</v>
+      </c>
+      <c r="C27">
+        <v>296.2047145258265</v>
+      </c>
+      <c r="D27">
+        <v>412.3297145258265</v>
+      </c>
+      <c r="E27">
+        <v>-65.47499999999999</v>
+      </c>
+      <c r="F27">
+        <v>157.025</v>
+      </c>
+      <c r="G27">
+        <v>40.9</v>
+      </c>
+      <c r="H27">
+        <v>405.6</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>44.3</v>
+      </c>
+      <c r="K27">
+        <v>33.2</v>
+      </c>
+      <c r="L27">
+        <v>11.1</v>
+      </c>
+      <c r="M27">
+        <v>22.014905</v>
+      </c>
+      <c r="N27">
+        <v>-10.914905</v>
+      </c>
+      <c r="O27">
+        <v>-2.073831949999999</v>
+      </c>
+      <c r="P27">
+        <v>-8.841073049999999</v>
+      </c>
+      <c r="Q27">
+        <v>24.35892695</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.08487833512619757</v>
+      </c>
+      <c r="T27">
+        <v>1.363908809266744</v>
+      </c>
+      <c r="U27">
+        <v>0.1402</v>
+      </c>
+      <c r="V27">
+        <v>0.09579873272221708</v>
+      </c>
+      <c r="W27">
+        <v>0.1267690176723452</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.5042038564327215</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.1082993622718172</v>
+      </c>
+      <c r="C28">
+        <v>235.9941535624968</v>
+      </c>
+      <c r="D28">
+        <v>358.4001535624969</v>
+      </c>
+      <c r="E28">
+        <v>-59.19399999999999</v>
+      </c>
+      <c r="F28">
+        <v>163.306</v>
+      </c>
+      <c r="G28">
+        <v>40.9</v>
+      </c>
+      <c r="H28">
+        <v>405.6</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>44.3</v>
+      </c>
+      <c r="K28">
+        <v>33.2</v>
+      </c>
+      <c r="L28">
+        <v>11.1</v>
+      </c>
+      <c r="M28">
+        <v>29.9993122</v>
+      </c>
+      <c r="N28">
+        <v>-18.8993122</v>
+      </c>
+      <c r="O28">
+        <v>-3.590869318</v>
+      </c>
+      <c r="P28">
+        <v>-15.308442882</v>
+      </c>
+      <c r="Q28">
+        <v>17.89155711799999</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.0863447403428796</v>
+      </c>
+      <c r="T28">
+        <v>1.390371988028855</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>0.07030161178161945</v>
+      </c>
+      <c r="W28">
+        <v>0.1707855939157165</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.370008483061155</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1100433622718172</v>
+      </c>
+      <c r="C29">
+        <v>223.5087758872062</v>
+      </c>
+      <c r="D29">
+        <v>352.1957758872062</v>
+      </c>
+      <c r="E29">
+        <v>-52.91299999999998</v>
+      </c>
+      <c r="F29">
+        <v>169.587</v>
+      </c>
+      <c r="G29">
+        <v>40.9</v>
+      </c>
+      <c r="H29">
+        <v>405.6</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>44.3</v>
+      </c>
+      <c r="K29">
+        <v>33.2</v>
+      </c>
+      <c r="L29">
+        <v>11.1</v>
+      </c>
+      <c r="M29">
+        <v>31.15313190000001</v>
+      </c>
+      <c r="N29">
+        <v>-20.0531319</v>
+      </c>
+      <c r="O29">
+        <v>-3.810095061000001</v>
+      </c>
+      <c r="P29">
+        <v>-16.243036839</v>
+      </c>
+      <c r="Q29">
+        <v>16.95696316099999</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.08740014774483686</v>
+      </c>
+      <c r="T29">
+        <v>1.409418179645689</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>0.06769784838230021</v>
+      </c>
+      <c r="W29">
+        <v>0.1712639052521714</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.356304465170001</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1117873622718172</v>
+      </c>
+      <c r="C30">
+        <v>211.2345546789344</v>
+      </c>
+      <c r="D30">
+        <v>346.2025546789344</v>
+      </c>
+      <c r="E30">
+        <v>-46.63199999999998</v>
+      </c>
+      <c r="F30">
+        <v>175.868</v>
+      </c>
+      <c r="G30">
+        <v>40.9</v>
+      </c>
+      <c r="H30">
+        <v>405.6</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>44.3</v>
+      </c>
+      <c r="K30">
+        <v>33.2</v>
+      </c>
+      <c r="L30">
+        <v>11.1</v>
+      </c>
+      <c r="M30">
+        <v>32.3069516</v>
+      </c>
+      <c r="N30">
+        <v>-21.2069516</v>
+      </c>
+      <c r="O30">
+        <v>-4.029320804000001</v>
+      </c>
+      <c r="P30">
+        <v>-17.177630796</v>
+      </c>
+      <c r="Q30">
+        <v>16.02236920399999</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.0884848720190707</v>
+      </c>
+      <c r="T30">
+        <v>1.428993432140768</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>0.06528006808293234</v>
+      </c>
+      <c r="W30">
+        <v>0.1717080514931653</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.3435793056996439</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1135313622718172</v>
+      </c>
+      <c r="C31">
+        <v>199.1608907225187</v>
+      </c>
+      <c r="D31">
+        <v>340.4098907225188</v>
+      </c>
+      <c r="E31">
+        <v>-40.351</v>
+      </c>
+      <c r="F31">
+        <v>182.149</v>
+      </c>
+      <c r="G31">
+        <v>40.9</v>
+      </c>
+      <c r="H31">
+        <v>405.6</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>44.3</v>
+      </c>
+      <c r="K31">
+        <v>33.2</v>
+      </c>
+      <c r="L31">
+        <v>11.1</v>
+      </c>
+      <c r="M31">
+        <v>33.4607713</v>
+      </c>
+      <c r="N31">
+        <v>-22.3607713</v>
+      </c>
+      <c r="O31">
+        <v>-4.248546546999999</v>
+      </c>
+      <c r="P31">
+        <v>-18.112224753</v>
+      </c>
+      <c r="Q31">
+        <v>15.087775247</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.08960015190666323</v>
+      </c>
+      <c r="T31">
+        <v>1.449120100199089</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>0.06302903125248642</v>
+      </c>
+      <c r="W31">
+        <v>0.1721215669589183</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.331731743434139</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1152753622718172</v>
+      </c>
+      <c r="C32">
+        <v>187.2778825133149</v>
+      </c>
+      <c r="D32">
+        <v>334.807882513315</v>
+      </c>
+      <c r="E32">
+        <v>-34.06999999999999</v>
+      </c>
+      <c r="F32">
+        <v>188.43</v>
+      </c>
+      <c r="G32">
+        <v>40.9</v>
+      </c>
+      <c r="H32">
+        <v>405.6</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>44.3</v>
+      </c>
+      <c r="K32">
+        <v>33.2</v>
+      </c>
+      <c r="L32">
+        <v>11.1</v>
+      </c>
+      <c r="M32">
+        <v>34.614591</v>
+      </c>
+      <c r="N32">
+        <v>-23.514591</v>
+      </c>
+      <c r="O32">
+        <v>-4.467772290000001</v>
+      </c>
+      <c r="P32">
+        <v>-19.04681871</v>
+      </c>
+      <c r="Q32">
+        <v>14.15318128999999</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.09074729693390128</v>
+      </c>
+      <c r="T32">
+        <v>1.469821815916218</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>0.06092806354407019</v>
+      </c>
+      <c r="W32">
+        <v>0.1725075147269543</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.3206740186530009</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1170193622718172</v>
+      </c>
+      <c r="C33">
+        <v>175.5762697767689</v>
+      </c>
+      <c r="D33">
+        <v>329.387269776769</v>
+      </c>
+      <c r="E33">
+        <v>-27.78899999999999</v>
+      </c>
+      <c r="F33">
+        <v>194.711</v>
+      </c>
+      <c r="G33">
+        <v>40.9</v>
+      </c>
+      <c r="H33">
+        <v>405.6</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>44.3</v>
+      </c>
+      <c r="K33">
+        <v>33.2</v>
+      </c>
+      <c r="L33">
+        <v>11.1</v>
+      </c>
+      <c r="M33">
+        <v>35.7684107</v>
+      </c>
+      <c r="N33">
+        <v>-24.6684107</v>
+      </c>
+      <c r="O33">
+        <v>-4.686998033000001</v>
+      </c>
+      <c r="P33">
+        <v>-19.981412667</v>
+      </c>
+      <c r="Q33">
+        <v>13.21858733299999</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.091927692541639</v>
+      </c>
+      <c r="T33">
+        <v>1.49112358136428</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>0.05896264213942276</v>
+      </c>
+      <c r="W33">
+        <v>0.1728685626389881</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.3103296954706461</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1187633622718172</v>
+      </c>
+      <c r="C34">
+        <v>164.0473823871579</v>
+      </c>
+      <c r="D34">
+        <v>324.1393823871579</v>
+      </c>
+      <c r="E34">
+        <v>-21.50799999999998</v>
+      </c>
+      <c r="F34">
+        <v>200.992</v>
+      </c>
+      <c r="G34">
+        <v>40.9</v>
+      </c>
+      <c r="H34">
+        <v>405.6</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>44.3</v>
+      </c>
+      <c r="K34">
+        <v>33.2</v>
+      </c>
+      <c r="L34">
+        <v>11.1</v>
+      </c>
+      <c r="M34">
+        <v>36.9222304</v>
+      </c>
+      <c r="N34">
+        <v>-25.8222304</v>
+      </c>
+      <c r="O34">
+        <v>-4.906223776000001</v>
+      </c>
+      <c r="P34">
+        <v>-20.916006624</v>
+      </c>
+      <c r="Q34">
+        <v>12.28399337599999</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.09314280566725135</v>
+      </c>
+      <c r="T34">
+        <v>1.513051869325519</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>0.0571200595725658</v>
+      </c>
+      <c r="W34">
+        <v>0.1732070450565197</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.3006318924871885</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1205073622718172</v>
+      </c>
+      <c r="C35">
+        <v>152.6830940927959</v>
+      </c>
+      <c r="D35">
+        <v>319.0560940927959</v>
+      </c>
+      <c r="E35">
+        <v>-15.22699999999998</v>
+      </c>
+      <c r="F35">
+        <v>207.273</v>
+      </c>
+      <c r="G35">
+        <v>40.9</v>
+      </c>
+      <c r="H35">
+        <v>405.6</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>44.3</v>
+      </c>
+      <c r="K35">
+        <v>33.2</v>
+      </c>
+      <c r="L35">
+        <v>11.1</v>
+      </c>
+      <c r="M35">
+        <v>38.0760501</v>
+      </c>
+      <c r="N35">
+        <v>-26.9760501</v>
+      </c>
+      <c r="O35">
+        <v>-5.125449519</v>
+      </c>
+      <c r="P35">
+        <v>-21.850600581</v>
+      </c>
+      <c r="Q35">
+        <v>11.34939941899999</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.09439419082646404</v>
+      </c>
+      <c r="T35">
+        <v>1.535634733046795</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>0.05538914867642744</v>
+      </c>
+      <c r="W35">
+        <v>0.1735250133881403</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.2915218351390918</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1222513622718172</v>
+      </c>
+      <c r="C36">
+        <v>141.4757805282125</v>
+      </c>
+      <c r="D36">
+        <v>314.1297805282125</v>
+      </c>
+      <c r="E36">
+        <v>-8.94599999999997</v>
+      </c>
+      <c r="F36">
+        <v>213.554</v>
+      </c>
+      <c r="G36">
+        <v>40.9</v>
+      </c>
+      <c r="H36">
+        <v>405.6</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>44.3</v>
+      </c>
+      <c r="K36">
+        <v>33.2</v>
+      </c>
+      <c r="L36">
+        <v>11.1</v>
+      </c>
+      <c r="M36">
+        <v>39.2298698</v>
+      </c>
+      <c r="N36">
+        <v>-28.1298698</v>
+      </c>
+      <c r="O36">
+        <v>-5.344675262</v>
+      </c>
+      <c r="P36">
+        <v>-22.785194538</v>
+      </c>
+      <c r="Q36">
+        <v>10.41480546199999</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.09568349674807712</v>
+      </c>
+      <c r="T36">
+        <v>1.558901925971747</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>0.05376005606829723</v>
+      </c>
+      <c r="W36">
+        <v>0.1738242777002538</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.2829476635173538</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1239953622718172</v>
+      </c>
+      <c r="C37">
+        <v>130.4182810570057</v>
+      </c>
+      <c r="D37">
+        <v>309.3532810570058</v>
+      </c>
+      <c r="E37">
+        <v>-2.664999999999964</v>
+      </c>
+      <c r="F37">
+        <v>219.835</v>
+      </c>
+      <c r="G37">
+        <v>40.9</v>
+      </c>
+      <c r="H37">
+        <v>405.6</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>44.3</v>
+      </c>
+      <c r="K37">
+        <v>33.2</v>
+      </c>
+      <c r="L37">
+        <v>11.1</v>
+      </c>
+      <c r="M37">
+        <v>40.38368950000001</v>
+      </c>
+      <c r="N37">
+        <v>-29.28368950000001</v>
+      </c>
+      <c r="O37">
+        <v>-5.563901005000002</v>
+      </c>
+      <c r="P37">
+        <v>-23.71978849500001</v>
+      </c>
+      <c r="Q37">
+        <v>9.480211504999989</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.09701247362112447</v>
+      </c>
+      <c r="T37">
+        <v>1.582885032525158</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0.05222405446634587</v>
+      </c>
+      <c r="W37">
+        <v>0.1741064411945323</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.2748634445597151</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1257393622718172</v>
+      </c>
+      <c r="C38">
+        <v>119.5038640437453</v>
+      </c>
+      <c r="D38">
+        <v>304.7198640437454</v>
+      </c>
+      <c r="E38">
+        <v>3.616000000000014</v>
+      </c>
+      <c r="F38">
+        <v>226.116</v>
+      </c>
+      <c r="G38">
+        <v>40.9</v>
+      </c>
+      <c r="H38">
+        <v>405.6</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>44.3</v>
+      </c>
+      <c r="K38">
+        <v>33.2</v>
+      </c>
+      <c r="L38">
+        <v>11.1</v>
+      </c>
+      <c r="M38">
+        <v>41.5375092</v>
+      </c>
+      <c r="N38">
+        <v>-30.4375092</v>
+      </c>
+      <c r="O38">
+        <v>-5.783126748</v>
+      </c>
+      <c r="P38">
+        <v>-24.654382452</v>
+      </c>
+      <c r="Q38">
+        <v>8.545617547999996</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.09838298102145454</v>
+      </c>
+      <c r="T38">
+        <v>1.607617611158364</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0.05077338628672516</v>
+      </c>
+      <c r="W38">
+        <v>0.1743729289391286</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.2672283488775008</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1274833622718172</v>
+      </c>
+      <c r="C39">
+        <v>108.7261952007146</v>
+      </c>
+      <c r="D39">
+        <v>300.2231952007147</v>
+      </c>
+      <c r="E39">
+        <v>9.89700000000002</v>
+      </c>
+      <c r="F39">
+        <v>232.397</v>
+      </c>
+      <c r="G39">
+        <v>40.9</v>
+      </c>
+      <c r="H39">
+        <v>405.6</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>44.3</v>
+      </c>
+      <c r="K39">
+        <v>33.2</v>
+      </c>
+      <c r="L39">
+        <v>11.1</v>
+      </c>
+      <c r="M39">
+        <v>42.6913289</v>
+      </c>
+      <c r="N39">
+        <v>-31.5913289</v>
+      </c>
+      <c r="O39">
+        <v>-6.002352491</v>
+      </c>
+      <c r="P39">
+        <v>-25.588976409</v>
+      </c>
+      <c r="Q39">
+        <v>7.611023590999995</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.09979699659322366</v>
+      </c>
+      <c r="T39">
+        <v>1.633135351018021</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0.04940113260330016</v>
+      </c>
+      <c r="W39">
+        <v>0.1746250119407738</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.2600059610700008</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1292273622718172</v>
+      </c>
+      <c r="C40">
+        <v>98.07930869648789</v>
+      </c>
+      <c r="D40">
+        <v>295.8573086964879</v>
+      </c>
+      <c r="E40">
+        <v>16.178</v>
+      </c>
+      <c r="F40">
+        <v>238.678</v>
+      </c>
+      <c r="G40">
+        <v>40.9</v>
+      </c>
+      <c r="H40">
+        <v>405.6</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>44.3</v>
+      </c>
+      <c r="K40">
+        <v>33.2</v>
+      </c>
+      <c r="L40">
+        <v>11.1</v>
+      </c>
+      <c r="M40">
+        <v>43.8451486</v>
+      </c>
+      <c r="N40">
+        <v>-32.7451486</v>
+      </c>
+      <c r="O40">
+        <v>-6.221578234</v>
+      </c>
+      <c r="P40">
+        <v>-26.523570366</v>
+      </c>
+      <c r="Q40">
+        <v>6.676429633999994</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1012566255705337</v>
+      </c>
+      <c r="T40">
+        <v>1.659476243776376</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0.04810110279795015</v>
+      </c>
+      <c r="W40">
+        <v>0.1748638274160166</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.2531636989365798</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1309713622718172</v>
+      </c>
+      <c r="C41">
+        <v>87.55758074923284</v>
+      </c>
+      <c r="D41">
+        <v>291.6165807492329</v>
+      </c>
+      <c r="E41">
+        <v>22.459</v>
+      </c>
+      <c r="F41">
+        <v>244.959</v>
+      </c>
+      <c r="G41">
+        <v>40.9</v>
+      </c>
+      <c r="H41">
+        <v>405.6</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>44.3</v>
+      </c>
+      <c r="K41">
+        <v>33.2</v>
+      </c>
+      <c r="L41">
+        <v>11.1</v>
+      </c>
+      <c r="M41">
+        <v>44.9989683</v>
+      </c>
+      <c r="N41">
+        <v>-33.8989683</v>
+      </c>
+      <c r="O41">
+        <v>-6.440803977</v>
+      </c>
+      <c r="P41">
+        <v>-27.458164323</v>
+      </c>
+      <c r="Q41">
+        <v>5.741835676999997</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1027641112356244</v>
+      </c>
+      <c r="T41">
+        <v>1.686680772362874</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0.0468677411877463</v>
+      </c>
+      <c r="W41">
+        <v>0.175090395943811</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.2466723220407701</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1327153622718172</v>
+      </c>
+      <c r="C42">
+        <v>77.15570545895474</v>
+      </c>
+      <c r="D42">
+        <v>287.4957054589548</v>
+      </c>
+      <c r="E42">
+        <v>28.74000000000001</v>
+      </c>
+      <c r="F42">
+        <v>251.24</v>
+      </c>
+      <c r="G42">
+        <v>40.9</v>
+      </c>
+      <c r="H42">
+        <v>405.6</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>44.3</v>
+      </c>
+      <c r="K42">
+        <v>33.2</v>
+      </c>
+      <c r="L42">
+        <v>11.1</v>
+      </c>
+      <c r="M42">
+        <v>46.152788</v>
+      </c>
+      <c r="N42">
+        <v>-35.052788</v>
+      </c>
+      <c r="O42">
+        <v>-6.66002972</v>
+      </c>
+      <c r="P42">
+        <v>-28.39275828</v>
+      </c>
+      <c r="Q42">
+        <v>4.807241719999997</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1043218464228848</v>
+      </c>
+      <c r="T42">
+        <v>1.714792118568921</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0.04569604765805264</v>
+      </c>
+      <c r="W42">
+        <v>0.1753056360452157</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.2405055139897507</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1344593622718172</v>
+      </c>
+      <c r="C43">
+        <v>66.86867266029356</v>
+      </c>
+      <c r="D43">
+        <v>283.4896726602936</v>
+      </c>
+      <c r="E43">
+        <v>35.02100000000002</v>
+      </c>
+      <c r="F43">
+        <v>257.521</v>
+      </c>
+      <c r="G43">
+        <v>40.9</v>
+      </c>
+      <c r="H43">
+        <v>405.6</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>44.3</v>
+      </c>
+      <c r="K43">
+        <v>33.2</v>
+      </c>
+      <c r="L43">
+        <v>11.1</v>
+      </c>
+      <c r="M43">
+        <v>47.3066077</v>
+      </c>
+      <c r="N43">
+        <v>-36.2066077</v>
+      </c>
+      <c r="O43">
+        <v>-6.879255463</v>
+      </c>
+      <c r="P43">
+        <v>-29.327352237</v>
+      </c>
+      <c r="Q43">
+        <v>3.872647762999996</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1059323861927642</v>
+      </c>
+      <c r="T43">
+        <v>1.743856391765005</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0.04458150991029527</v>
+      </c>
+      <c r="W43">
+        <v>0.1755103766294787</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.2346395258436593</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1362033622718172</v>
+      </c>
+      <c r="C44">
+        <v>56.69174760150293</v>
+      </c>
+      <c r="D44">
+        <v>279.593747601503</v>
+      </c>
+      <c r="E44">
+        <v>41.30200000000002</v>
+      </c>
+      <c r="F44">
+        <v>263.802</v>
+      </c>
+      <c r="G44">
+        <v>40.9</v>
+      </c>
+      <c r="H44">
+        <v>405.6</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>44.3</v>
+      </c>
+      <c r="K44">
+        <v>33.2</v>
+      </c>
+      <c r="L44">
+        <v>11.1</v>
+      </c>
+      <c r="M44">
+        <v>48.46042740000001</v>
+      </c>
+      <c r="N44">
+        <v>-37.36042740000001</v>
+      </c>
+      <c r="O44">
+        <v>-7.098481206000002</v>
+      </c>
+      <c r="P44">
+        <v>-30.261946194</v>
+      </c>
+      <c r="Q44">
+        <v>2.938053805999992</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1075984618167774</v>
+      </c>
+      <c r="T44">
+        <v>1.773922881278195</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0.04352004538862157</v>
+      </c>
+      <c r="W44">
+        <v>0.1757053676621102</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.2290528704664293</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1379473622718172</v>
+      </c>
+      <c r="C45">
+        <v>46.62045227631194</v>
+      </c>
+      <c r="D45">
+        <v>275.803452276312</v>
+      </c>
+      <c r="E45">
+        <v>47.58300000000003</v>
+      </c>
+      <c r="F45">
+        <v>270.083</v>
+      </c>
+      <c r="G45">
+        <v>40.9</v>
+      </c>
+      <c r="H45">
+        <v>405.6</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>44.3</v>
+      </c>
+      <c r="K45">
+        <v>33.2</v>
+      </c>
+      <c r="L45">
+        <v>11.1</v>
+      </c>
+      <c r="M45">
+        <v>49.61424710000001</v>
+      </c>
+      <c r="N45">
+        <v>-38.51424710000001</v>
+      </c>
+      <c r="O45">
+        <v>-7.317706949000002</v>
+      </c>
+      <c r="P45">
+        <v>-31.196540151</v>
+      </c>
+      <c r="Q45">
+        <v>2.003459848999992</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1093229962346156</v>
+      </c>
+      <c r="T45">
+        <v>1.805044335335707</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0.04250795130981641</v>
+      </c>
+      <c r="W45">
+        <v>0.1758912893443867</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.2237260595253495</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1396913622718172</v>
+      </c>
+      <c r="C46">
+        <v>36.65054825391826</v>
+      </c>
+      <c r="D46">
+        <v>272.1145482539183</v>
+      </c>
+      <c r="E46">
+        <v>53.86400000000003</v>
+      </c>
+      <c r="F46">
+        <v>276.364</v>
+      </c>
+      <c r="G46">
+        <v>40.9</v>
+      </c>
+      <c r="H46">
+        <v>405.6</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>44.3</v>
+      </c>
+      <c r="K46">
+        <v>33.2</v>
+      </c>
+      <c r="L46">
+        <v>11.1</v>
+      </c>
+      <c r="M46">
+        <v>50.76806680000001</v>
+      </c>
+      <c r="N46">
+        <v>-39.66806680000001</v>
+      </c>
+      <c r="O46">
+        <v>-7.536932692000001</v>
+      </c>
+      <c r="P46">
+        <v>-32.131134108</v>
+      </c>
+      <c r="Q46">
+        <v>1.068865891999991</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1111091211673766</v>
+      </c>
+      <c r="T46">
+        <v>1.837277269895273</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0.04154186150732058</v>
+      </c>
+      <c r="W46">
+        <v>0.1760687600411052</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.2186413763543189</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1414353622718172</v>
+      </c>
+      <c r="C47">
+        <v>26.77802086870105</v>
+      </c>
+      <c r="D47">
+        <v>268.5230208687011</v>
+      </c>
+      <c r="E47">
+        <v>60.14500000000004</v>
+      </c>
+      <c r="F47">
+        <v>282.645</v>
+      </c>
+      <c r="G47">
+        <v>40.9</v>
+      </c>
+      <c r="H47">
+        <v>405.6</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>44.3</v>
+      </c>
+      <c r="K47">
+        <v>33.2</v>
+      </c>
+      <c r="L47">
+        <v>11.1</v>
+      </c>
+      <c r="M47">
+        <v>51.92188650000001</v>
+      </c>
+      <c r="N47">
+        <v>-40.82188650000001</v>
+      </c>
+      <c r="O47">
+        <v>-7.756158435000001</v>
+      </c>
+      <c r="P47">
+        <v>-33.065728065</v>
+      </c>
+      <c r="Q47">
+        <v>0.1342719349999939</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1129601960976925</v>
+      </c>
+      <c r="T47">
+        <v>1.870682311166096</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0.04061870902938013</v>
+      </c>
+      <c r="W47">
+        <v>0.1762383431513029</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.2137826791020007</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1431793622718172</v>
+      </c>
+      <c r="C48">
+        <v>16.9990646456634</v>
+      </c>
+      <c r="D48">
+        <v>265.0250646456635</v>
+      </c>
+      <c r="E48">
+        <v>66.42600000000004</v>
+      </c>
+      <c r="F48">
+        <v>288.926</v>
+      </c>
+      <c r="G48">
+        <v>40.9</v>
+      </c>
+      <c r="H48">
+        <v>405.6</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>44.3</v>
+      </c>
+      <c r="K48">
+        <v>33.2</v>
+      </c>
+      <c r="L48">
+        <v>11.1</v>
+      </c>
+      <c r="M48">
+        <v>53.07570620000001</v>
+      </c>
+      <c r="N48">
+        <v>-41.9757062</v>
+      </c>
+      <c r="O48">
+        <v>-7.975384178000001</v>
+      </c>
+      <c r="P48">
+        <v>-34.00032202200001</v>
+      </c>
+      <c r="Q48">
+        <v>-0.8003220220000102</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1148798293587609</v>
+      </c>
+      <c r="T48">
+        <v>1.90532457618769</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0.03973569361569795</v>
+      </c>
+      <c r="W48">
+        <v>0.1764005530827963</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.209135229556305</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1449233622718172</v>
+      </c>
+      <c r="C49">
+        <v>7.310069850373623</v>
+      </c>
+      <c r="D49">
+        <v>261.6170698503737</v>
+      </c>
+      <c r="E49">
+        <v>72.70700000000005</v>
+      </c>
+      <c r="F49">
+        <v>295.2070000000001</v>
+      </c>
+      <c r="G49">
+        <v>40.9</v>
+      </c>
+      <c r="H49">
+        <v>405.6</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>44.3</v>
+      </c>
+      <c r="K49">
+        <v>33.2</v>
+      </c>
+      <c r="L49">
+        <v>11.1</v>
+      </c>
+      <c r="M49">
+        <v>54.22952590000001</v>
+      </c>
+      <c r="N49">
+        <v>-43.12952590000001</v>
+      </c>
+      <c r="O49">
+        <v>-8.194609921000001</v>
+      </c>
+      <c r="P49">
+        <v>-34.93491597900001</v>
+      </c>
+      <c r="Q49">
+        <v>-1.734915979000014</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.116871901610813</v>
+      </c>
+      <c r="T49">
+        <v>1.941274096493119</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0.03889025332600225</v>
+      </c>
+      <c r="W49">
+        <v>0.1765558604640134</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.2046855438210644</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1466673622718172</v>
+      </c>
+      <c r="C50">
+        <v>-2.292389936531265</v>
+      </c>
+      <c r="D50">
+        <v>258.2956100634688</v>
+      </c>
+      <c r="E50">
+        <v>78.988</v>
+      </c>
+      <c r="F50">
+        <v>301.488</v>
+      </c>
+      <c r="G50">
+        <v>40.9</v>
+      </c>
+      <c r="H50">
+        <v>405.6</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>44.3</v>
+      </c>
+      <c r="K50">
+        <v>33.2</v>
+      </c>
+      <c r="L50">
+        <v>11.1</v>
+      </c>
+      <c r="M50">
+        <v>55.3833456</v>
+      </c>
+      <c r="N50">
+        <v>-44.2833456</v>
+      </c>
+      <c r="O50">
+        <v>-8.413835663999999</v>
+      </c>
+      <c r="P50">
+        <v>-35.869509936</v>
+      </c>
+      <c r="Q50">
+        <v>-2.669509936000004</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1189405920264056</v>
+      </c>
+      <c r="T50">
+        <v>1.978606290656448</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0.03808003971504387</v>
+      </c>
+      <c r="W50">
+        <v>0.1767046967043464</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.2004212616581257</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1484113622718172</v>
+      </c>
+      <c r="C51">
+        <v>-11.8115693101937</v>
+      </c>
+      <c r="D51">
+        <v>255.0574306898063</v>
+      </c>
+      <c r="E51">
+        <v>85.26900000000001</v>
+      </c>
+      <c r="F51">
+        <v>307.769</v>
+      </c>
+      <c r="G51">
+        <v>40.9</v>
+      </c>
+      <c r="H51">
+        <v>405.6</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>44.3</v>
+      </c>
+      <c r="K51">
+        <v>33.2</v>
+      </c>
+      <c r="L51">
+        <v>11.1</v>
+      </c>
+      <c r="M51">
+        <v>56.53716530000001</v>
+      </c>
+      <c r="N51">
+        <v>-45.4371653</v>
+      </c>
+      <c r="O51">
+        <v>-8.633061407000001</v>
+      </c>
+      <c r="P51">
+        <v>-36.804103893</v>
+      </c>
+      <c r="Q51">
+        <v>-3.604103893000008</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1210904075563351</v>
+      </c>
+      <c r="T51">
+        <v>2.017402492434025</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0.03730289604738991</v>
+      </c>
+      <c r="W51">
+        <v>0.1768474579960945</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.196331031828368</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1501553622718172</v>
+      </c>
+      <c r="C52">
+        <v>-21.25056167873856</v>
+      </c>
+      <c r="D52">
+        <v>251.8994383212615</v>
+      </c>
+      <c r="E52">
+        <v>91.55000000000001</v>
+      </c>
+      <c r="F52">
+        <v>314.05</v>
+      </c>
+      <c r="G52">
+        <v>40.9</v>
+      </c>
+      <c r="H52">
+        <v>405.6</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>44.3</v>
+      </c>
+      <c r="K52">
+        <v>33.2</v>
+      </c>
+      <c r="L52">
+        <v>11.1</v>
+      </c>
+      <c r="M52">
+        <v>57.690985</v>
+      </c>
+      <c r="N52">
+        <v>-46.590985</v>
+      </c>
+      <c r="O52">
+        <v>-8.85228715</v>
+      </c>
+      <c r="P52">
+        <v>-37.73869785</v>
+      </c>
+      <c r="Q52">
+        <v>-4.538697850000005</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1233262157074618</v>
+      </c>
+      <c r="T52">
+        <v>2.057750542282706</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.03655683812644211</v>
+      </c>
+      <c r="W52">
+        <v>0.1769845088361726</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.1924044111918006</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1518993622718172</v>
+      </c>
+      <c r="C53">
+        <v>-30.61230911991493</v>
+      </c>
+      <c r="D53">
+        <v>248.8186908800851</v>
+      </c>
+      <c r="E53">
+        <v>97.83100000000002</v>
+      </c>
+      <c r="F53">
+        <v>320.331</v>
+      </c>
+      <c r="G53">
+        <v>40.9</v>
+      </c>
+      <c r="H53">
+        <v>405.6</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>44.3</v>
+      </c>
+      <c r="K53">
+        <v>33.2</v>
+      </c>
+      <c r="L53">
+        <v>11.1</v>
+      </c>
+      <c r="M53">
+        <v>58.8448047</v>
+      </c>
+      <c r="N53">
+        <v>-47.7448047</v>
+      </c>
+      <c r="O53">
+        <v>-9.071512893000001</v>
+      </c>
+      <c r="P53">
+        <v>-38.673291807</v>
+      </c>
+      <c r="Q53">
+        <v>-5.473291807000003</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1256532813341447</v>
+      </c>
+      <c r="T53">
+        <v>2.099745451308884</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.03584003737886482</v>
+      </c>
+      <c r="W53">
+        <v>0.1771161851335026</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.1886317756782359</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1536433622718172</v>
+      </c>
+      <c r="C54">
+        <v>-39.89961152319205</v>
+      </c>
+      <c r="D54">
+        <v>245.812388476808</v>
+      </c>
+      <c r="E54">
+        <v>104.112</v>
+      </c>
+      <c r="F54">
+        <v>326.612</v>
+      </c>
+      <c r="G54">
+        <v>40.9</v>
+      </c>
+      <c r="H54">
+        <v>405.6</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>44.3</v>
+      </c>
+      <c r="K54">
+        <v>33.2</v>
+      </c>
+      <c r="L54">
+        <v>11.1</v>
+      </c>
+      <c r="M54">
+        <v>59.9986244</v>
+      </c>
+      <c r="N54">
+        <v>-48.8986244</v>
+      </c>
+      <c r="O54">
+        <v>-9.290738636</v>
+      </c>
+      <c r="P54">
+        <v>-39.607885764</v>
+      </c>
+      <c r="Q54">
+        <v>-6.407885764000007</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.128077308028606</v>
+      </c>
+      <c r="T54">
+        <v>2.143490148211152</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.03515080589080972</v>
+      </c>
+      <c r="W54">
+        <v>0.1772427969578582</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.1850042415305775</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1553873622718172</v>
+      </c>
+      <c r="C55">
+        <v>-49.11513507702216</v>
+      </c>
+      <c r="D55">
+        <v>242.8778649229779</v>
+      </c>
+      <c r="E55">
+        <v>110.393</v>
+      </c>
+      <c r="F55">
+        <v>332.893</v>
+      </c>
+      <c r="G55">
+        <v>40.9</v>
+      </c>
+      <c r="H55">
+        <v>405.6</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>44.3</v>
+      </c>
+      <c r="K55">
+        <v>33.2</v>
+      </c>
+      <c r="L55">
+        <v>11.1</v>
+      </c>
+      <c r="M55">
+        <v>61.1524441</v>
+      </c>
+      <c r="N55">
+        <v>-50.0524441</v>
+      </c>
+      <c r="O55">
+        <v>-9.509964379000001</v>
+      </c>
+      <c r="P55">
+        <v>-40.542479721</v>
+      </c>
+      <c r="Q55">
+        <v>-7.342479721000004</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1306044847951721</v>
+      </c>
+      <c r="T55">
+        <v>2.189096321577347</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.03448758313815294</v>
+      </c>
+      <c r="W55">
+        <v>0.1773646309775213</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.1815135954639628</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1571313622718172</v>
+      </c>
+      <c r="C56">
+        <v>-58.26142015534566</v>
+      </c>
+      <c r="D56">
+        <v>240.0125798446544</v>
+      </c>
+      <c r="E56">
+        <v>116.674</v>
+      </c>
+      <c r="F56">
+        <v>339.174</v>
+      </c>
+      <c r="G56">
+        <v>40.9</v>
+      </c>
+      <c r="H56">
+        <v>405.6</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>44.3</v>
+      </c>
+      <c r="K56">
+        <v>33.2</v>
+      </c>
+      <c r="L56">
+        <v>11.1</v>
+      </c>
+      <c r="M56">
+        <v>62.30626380000001</v>
+      </c>
+      <c r="N56">
+        <v>-51.20626380000001</v>
+      </c>
+      <c r="O56">
+        <v>-9.729190122000002</v>
+      </c>
+      <c r="P56">
+        <v>-41.47707367800001</v>
+      </c>
+      <c r="Q56">
+        <v>-8.277073678000015</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1332415388124585</v>
+      </c>
+      <c r="T56">
+        <v>2.236685372046419</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.03384892419115011</v>
+      </c>
+      <c r="W56">
+        <v>0.1774819526260857</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.1781522325850006</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1588753622718172</v>
+      </c>
+      <c r="C57">
+        <v>-67.3408886523726</v>
+      </c>
+      <c r="D57">
+        <v>237.2141113476274</v>
+      </c>
+      <c r="E57">
+        <v>122.955</v>
+      </c>
+      <c r="F57">
+        <v>345.455</v>
+      </c>
+      <c r="G57">
+        <v>40.9</v>
+      </c>
+      <c r="H57">
+        <v>405.6</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>44.3</v>
+      </c>
+      <c r="K57">
+        <v>33.2</v>
+      </c>
+      <c r="L57">
+        <v>11.1</v>
+      </c>
+      <c r="M57">
+        <v>63.46008350000001</v>
+      </c>
+      <c r="N57">
+        <v>-52.36008350000001</v>
+      </c>
+      <c r="O57">
+        <v>-9.948415865000001</v>
+      </c>
+      <c r="P57">
+        <v>-42.41166763500001</v>
+      </c>
+      <c r="Q57">
+        <v>-9.211667635000012</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1359957952305131</v>
+      </c>
+      <c r="T57">
+        <v>2.286389491425229</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.03323348920585646</v>
+      </c>
+      <c r="W57">
+        <v>0.1775950080328842</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.174913101083455</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1606193622718172</v>
+      </c>
+      <c r="C58">
+        <v>-76.3558508101508</v>
+      </c>
+      <c r="D58">
+        <v>234.4801491898493</v>
+      </c>
+      <c r="E58">
+        <v>129.236</v>
+      </c>
+      <c r="F58">
+        <v>351.736</v>
+      </c>
+      <c r="G58">
+        <v>40.9</v>
+      </c>
+      <c r="H58">
+        <v>405.6</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>44.3</v>
+      </c>
+      <c r="K58">
+        <v>33.2</v>
+      </c>
+      <c r="L58">
+        <v>11.1</v>
+      </c>
+      <c r="M58">
+        <v>64.61390320000001</v>
+      </c>
+      <c r="N58">
+        <v>-53.51390320000001</v>
+      </c>
+      <c r="O58">
+        <v>-10.167641608</v>
+      </c>
+      <c r="P58">
+        <v>-43.346261592</v>
+      </c>
+      <c r="Q58">
+        <v>-10.14626159200001</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1388752451221157</v>
+      </c>
+      <c r="T58">
+        <v>2.33835288895762</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.03264003404146617</v>
+      </c>
+      <c r="W58">
+        <v>0.1777040257465827</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.1717896528498219</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1623633622718172</v>
+      </c>
+      <c r="C59">
+        <v>-85.30851157937451</v>
+      </c>
+      <c r="D59">
+        <v>231.8084884206255</v>
+      </c>
+      <c r="E59">
+        <v>135.5170000000001</v>
+      </c>
+      <c r="F59">
+        <v>358.0170000000001</v>
+      </c>
+      <c r="G59">
+        <v>40.9</v>
+      </c>
+      <c r="H59">
+        <v>405.6</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>44.3</v>
+      </c>
+      <c r="K59">
+        <v>33.2</v>
+      </c>
+      <c r="L59">
+        <v>11.1</v>
+      </c>
+      <c r="M59">
+        <v>65.76772290000001</v>
+      </c>
+      <c r="N59">
+        <v>-54.66772290000001</v>
+      </c>
+      <c r="O59">
+        <v>-10.386867351</v>
+      </c>
+      <c r="P59">
+        <v>-44.28085554900001</v>
+      </c>
+      <c r="Q59">
+        <v>-11.08085554900001</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1418886229156533</v>
+      </c>
+      <c r="T59">
+        <v>2.392733188700821</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.0320674018653001</v>
+      </c>
+      <c r="W59">
+        <v>0.1778092182773444</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.1687757992910531</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1641073622718172</v>
+      </c>
+      <c r="C60">
+        <v>-94.20097655024398</v>
+      </c>
+      <c r="D60">
+        <v>229.197023449756</v>
+      </c>
+      <c r="E60">
+        <v>141.798</v>
+      </c>
+      <c r="F60">
+        <v>364.298</v>
+      </c>
+      <c r="G60">
+        <v>40.9</v>
+      </c>
+      <c r="H60">
+        <v>405.6</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>44.3</v>
+      </c>
+      <c r="K60">
+        <v>33.2</v>
+      </c>
+      <c r="L60">
+        <v>11.1</v>
+      </c>
+      <c r="M60">
+        <v>66.9215426</v>
+      </c>
+      <c r="N60">
+        <v>-55.82154259999999</v>
+      </c>
+      <c r="O60">
+        <v>-10.606093094</v>
+      </c>
+      <c r="P60">
+        <v>-45.215449506</v>
+      </c>
+      <c r="Q60">
+        <v>-12.015449506</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1450454948898355</v>
+      </c>
+      <c r="T60">
+        <v>2.449703026527031</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.03151451562624321</v>
+      </c>
+      <c r="W60">
+        <v>0.1779107834794591</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.1658658717170695</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1658513622718172</v>
+      </c>
+      <c r="C61">
+        <v>-103.0352574869015</v>
+      </c>
+      <c r="D61">
+        <v>226.6437425130986</v>
+      </c>
+      <c r="E61">
+        <v>148.079</v>
+      </c>
+      <c r="F61">
+        <v>370.579</v>
+      </c>
+      <c r="G61">
+        <v>40.9</v>
+      </c>
+      <c r="H61">
+        <v>405.6</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>44.3</v>
+      </c>
+      <c r="K61">
+        <v>33.2</v>
+      </c>
+      <c r="L61">
+        <v>11.1</v>
+      </c>
+      <c r="M61">
+        <v>68.07536230000001</v>
+      </c>
+      <c r="N61">
+        <v>-56.97536230000001</v>
+      </c>
+      <c r="O61">
+        <v>-10.825318837</v>
+      </c>
+      <c r="P61">
+        <v>-46.150043463</v>
+      </c>
+      <c r="Q61">
+        <v>-12.95004346300001</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1483563606188558</v>
+      </c>
+      <c r="T61">
+        <v>2.509451880832568</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.03098037129359501</v>
+      </c>
+      <c r="W61">
+        <v>0.1780089057933666</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.1630545857557633</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1675953622718172</v>
+      </c>
+      <c r="C62">
+        <v>-111.8132774960165</v>
+      </c>
+      <c r="D62">
+        <v>224.1467225039835</v>
+      </c>
+      <c r="E62">
+        <v>154.36</v>
+      </c>
+      <c r="F62">
+        <v>376.86</v>
+      </c>
+      <c r="G62">
+        <v>40.9</v>
+      </c>
+      <c r="H62">
+        <v>405.6</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>44.3</v>
+      </c>
+      <c r="K62">
+        <v>33.2</v>
+      </c>
+      <c r="L62">
+        <v>11.1</v>
+      </c>
+      <c r="M62">
+        <v>69.22918200000001</v>
+      </c>
+      <c r="N62">
+        <v>-58.12918200000001</v>
+      </c>
+      <c r="O62">
+        <v>-11.04454458</v>
+      </c>
+      <c r="P62">
+        <v>-47.08463742000001</v>
+      </c>
+      <c r="Q62">
+        <v>-13.88463742000001</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1518327696343272</v>
+      </c>
+      <c r="T62">
+        <v>2.572188177853382</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.03046403177203509</v>
+      </c>
+      <c r="W62">
+        <v>0.1781037573634772</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.1603370093265005</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1693393622718172</v>
+      </c>
+      <c r="C63">
+        <v>-120.5368758574309</v>
+      </c>
+      <c r="D63">
+        <v>221.7041241425691</v>
+      </c>
+      <c r="E63">
+        <v>160.641</v>
+      </c>
+      <c r="F63">
+        <v>383.141</v>
+      </c>
+      <c r="G63">
+        <v>40.9</v>
+      </c>
+      <c r="H63">
+        <v>405.6</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>44.3</v>
+      </c>
+      <c r="K63">
+        <v>33.2</v>
+      </c>
+      <c r="L63">
+        <v>11.1</v>
+      </c>
+      <c r="M63">
+        <v>70.38300170000001</v>
+      </c>
+      <c r="N63">
+        <v>-59.28300170000001</v>
+      </c>
+      <c r="O63">
+        <v>-11.263770323</v>
+      </c>
+      <c r="P63">
+        <v>-48.019231377</v>
+      </c>
+      <c r="Q63">
+        <v>-14.81923137700001</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1554874560352074</v>
+      </c>
+      <c r="T63">
+        <v>2.638141720875264</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.02996462141511649</v>
+      </c>
+      <c r="W63">
+        <v>0.1781954990460431</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.157708533763771</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1710833622718172</v>
+      </c>
+      <c r="C64">
+        <v>-129.2078125423603</v>
+      </c>
+      <c r="D64">
+        <v>219.3141874576397</v>
+      </c>
+      <c r="E64">
+        <v>166.922</v>
+      </c>
+      <c r="F64">
+        <v>389.422</v>
+      </c>
+      <c r="G64">
+        <v>40.9</v>
+      </c>
+      <c r="H64">
+        <v>405.6</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>44.3</v>
+      </c>
+      <c r="K64">
+        <v>33.2</v>
+      </c>
+      <c r="L64">
+        <v>11.1</v>
+      </c>
+      <c r="M64">
+        <v>71.53682140000001</v>
+      </c>
+      <c r="N64">
+        <v>-60.43682140000001</v>
+      </c>
+      <c r="O64">
+        <v>-11.482996066</v>
+      </c>
+      <c r="P64">
+        <v>-48.953825334</v>
+      </c>
+      <c r="Q64">
+        <v>-15.75382533400001</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1593344943519234</v>
+      </c>
+      <c r="T64">
+        <v>2.70756650300356</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.02948132106971138</v>
+      </c>
+      <c r="W64">
+        <v>0.178284281319494</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.155164847735323</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1728273622718172</v>
+      </c>
+      <c r="C65">
+        <v>-137.82777244248</v>
+      </c>
+      <c r="D65">
+        <v>216.9752275575201</v>
+      </c>
+      <c r="E65">
+        <v>173.203</v>
+      </c>
+      <c r="F65">
+        <v>395.703</v>
+      </c>
+      <c r="G65">
+        <v>40.9</v>
+      </c>
+      <c r="H65">
+        <v>405.6</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>44.3</v>
+      </c>
+      <c r="K65">
+        <v>33.2</v>
+      </c>
+      <c r="L65">
+        <v>11.1</v>
+      </c>
+      <c r="M65">
+        <v>72.69064110000001</v>
+      </c>
+      <c r="N65">
+        <v>-61.59064110000001</v>
+      </c>
+      <c r="O65">
+        <v>-11.702221809</v>
+      </c>
+      <c r="P65">
+        <v>-49.88841929100001</v>
+      </c>
+      <c r="Q65">
+        <v>-16.68841929100001</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1633894806857592</v>
+      </c>
+      <c r="T65">
+        <v>2.78074397605771</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.02901336359241437</v>
+      </c>
+      <c r="W65">
+        <v>0.1783702451080735</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.1527019136442862</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1745713622718172</v>
+      </c>
+      <c r="C66">
+        <v>-146.3983693312499</v>
+      </c>
+      <c r="D66">
+        <v>214.6856306687502</v>
+      </c>
+      <c r="E66">
+        <v>179.484</v>
+      </c>
+      <c r="F66">
+        <v>401.984</v>
+      </c>
+      <c r="G66">
+        <v>40.9</v>
+      </c>
+      <c r="H66">
+        <v>405.6</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>44.3</v>
+      </c>
+      <c r="K66">
+        <v>33.2</v>
+      </c>
+      <c r="L66">
+        <v>11.1</v>
+      </c>
+      <c r="M66">
+        <v>73.84446080000001</v>
+      </c>
+      <c r="N66">
+        <v>-62.74446080000001</v>
+      </c>
+      <c r="O66">
+        <v>-11.921447552</v>
+      </c>
+      <c r="P66">
+        <v>-50.823013248</v>
+      </c>
+      <c r="Q66">
+        <v>-17.62301324800001</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1676697440381414</v>
+      </c>
+      <c r="T66">
+        <v>2.857986864281536</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.0285600297862829</v>
+      </c>
+      <c r="W66">
+        <v>0.1784535225282598</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.1503159462435942</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1763153622718172</v>
+      </c>
+      <c r="C67">
+        <v>-154.9211495770512</v>
+      </c>
+      <c r="D67">
+        <v>212.4438504229489</v>
+      </c>
+      <c r="E67">
+        <v>185.765</v>
+      </c>
+      <c r="F67">
+        <v>408.265</v>
+      </c>
+      <c r="G67">
+        <v>40.9</v>
+      </c>
+      <c r="H67">
+        <v>405.6</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>44.3</v>
+      </c>
+      <c r="K67">
+        <v>33.2</v>
+      </c>
+      <c r="L67">
+        <v>11.1</v>
+      </c>
+      <c r="M67">
+        <v>74.99828050000001</v>
+      </c>
+      <c r="N67">
+        <v>-63.89828050000001</v>
+      </c>
+      <c r="O67">
+        <v>-12.140673295</v>
+      </c>
+      <c r="P67">
+        <v>-51.75760720500001</v>
+      </c>
+      <c r="Q67">
+        <v>-18.55760720500001</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1721945938678026</v>
+      </c>
+      <c r="T67">
+        <v>2.939643631832437</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.02812064471264778</v>
+      </c>
+      <c r="W67">
+        <v>0.1785342375662866</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.148003393224462</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1780593622718172</v>
+      </c>
+      <c r="C68">
+        <v>-163.3975956260879</v>
+      </c>
+      <c r="D68">
+        <v>210.2484043739121</v>
+      </c>
+      <c r="E68">
+        <v>192.046</v>
+      </c>
+      <c r="F68">
+        <v>414.546</v>
+      </c>
+      <c r="G68">
+        <v>40.9</v>
+      </c>
+      <c r="H68">
+        <v>405.6</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>44.3</v>
+      </c>
+      <c r="K68">
+        <v>33.2</v>
+      </c>
+      <c r="L68">
+        <v>11.1</v>
+      </c>
+      <c r="M68">
+        <v>76.15210020000001</v>
+      </c>
+      <c r="N68">
+        <v>-65.05210020000001</v>
+      </c>
+      <c r="O68">
+        <v>-12.359899038</v>
+      </c>
+      <c r="P68">
+        <v>-52.69220116200001</v>
+      </c>
+      <c r="Q68">
+        <v>-19.49220116200001</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1769856113345027</v>
+      </c>
+      <c r="T68">
+        <v>3.026103738651039</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.02769457433821372</v>
+      </c>
+      <c r="W68">
+        <v>0.1786125066940701</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.1457609175695458</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1798033622718172</v>
+      </c>
+      <c r="C69">
+        <v>-171.8291292715392</v>
+      </c>
+      <c r="D69">
+        <v>208.0978707284609</v>
+      </c>
+      <c r="E69">
+        <v>198.3270000000001</v>
+      </c>
+      <c r="F69">
+        <v>420.8270000000001</v>
+      </c>
+      <c r="G69">
+        <v>40.9</v>
+      </c>
+      <c r="H69">
+        <v>405.6</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>44.3</v>
+      </c>
+      <c r="K69">
+        <v>33.2</v>
+      </c>
+      <c r="L69">
+        <v>11.1</v>
+      </c>
+      <c r="M69">
+        <v>77.30591990000001</v>
+      </c>
+      <c r="N69">
+        <v>-66.2059199</v>
+      </c>
+      <c r="O69">
+        <v>-12.579124781</v>
+      </c>
+      <c r="P69">
+        <v>-53.626795119</v>
+      </c>
+      <c r="Q69">
+        <v>-20.426795119</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1820669934961543</v>
+      </c>
+      <c r="T69">
+        <v>3.117803851943494</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.02728122248241949</v>
+      </c>
+      <c r="W69">
+        <v>0.1786884394299795</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.1435853814864184</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1815473622718172</v>
+      </c>
+      <c r="C70">
+        <v>-180.2171147241101</v>
+      </c>
+      <c r="D70">
+        <v>205.9908852758899</v>
+      </c>
+      <c r="E70">
+        <v>204.6080000000001</v>
+      </c>
+      <c r="F70">
+        <v>427.1080000000001</v>
+      </c>
+      <c r="G70">
+        <v>40.9</v>
+      </c>
+      <c r="H70">
+        <v>405.6</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>44.3</v>
+      </c>
+      <c r="K70">
+        <v>33.2</v>
+      </c>
+      <c r="L70">
+        <v>11.1</v>
+      </c>
+      <c r="M70">
+        <v>78.45973960000001</v>
+      </c>
+      <c r="N70">
+        <v>-67.35973960000001</v>
+      </c>
+      <c r="O70">
+        <v>-12.798350524</v>
+      </c>
+      <c r="P70">
+        <v>-54.56138907600001</v>
+      </c>
+      <c r="Q70">
+        <v>-21.36138907600002</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1874659620429091</v>
+      </c>
+      <c r="T70">
+        <v>3.215235222316728</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.02688002803414861</v>
+      </c>
+      <c r="W70">
+        <v>0.1787621388501269</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.1414738317586768</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1832913622718172</v>
+      </c>
+      <c r="C71">
+        <v>-188.5628614979178</v>
+      </c>
+      <c r="D71">
+        <v>203.9261385020822</v>
+      </c>
+      <c r="E71">
+        <v>210.8890000000001</v>
+      </c>
+      <c r="F71">
+        <v>433.3890000000001</v>
+      </c>
+      <c r="G71">
+        <v>40.9</v>
+      </c>
+      <c r="H71">
+        <v>405.6</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>44.3</v>
+      </c>
+      <c r="K71">
+        <v>33.2</v>
+      </c>
+      <c r="L71">
+        <v>11.1</v>
+      </c>
+      <c r="M71">
+        <v>79.61355930000002</v>
+      </c>
+      <c r="N71">
+        <v>-68.51355930000003</v>
+      </c>
+      <c r="O71">
+        <v>-13.017576267</v>
+      </c>
+      <c r="P71">
+        <v>-55.49598303300002</v>
+      </c>
+      <c r="Q71">
+        <v>-22.29598303300003</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1932132511410675</v>
+      </c>
+      <c r="T71">
+        <v>3.318952487552752</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.0264904624104653</v>
+      </c>
+      <c r="W71">
+        <v>0.1788337020551975</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.1394234863708699</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1850353622718172</v>
+      </c>
+      <c r="C72">
+        <v>-196.8676271245397</v>
+      </c>
+      <c r="D72">
+        <v>201.9023728754604</v>
+      </c>
+      <c r="E72">
+        <v>217.1700000000001</v>
+      </c>
+      <c r="F72">
+        <v>439.6700000000001</v>
+      </c>
+      <c r="G72">
+        <v>40.9</v>
+      </c>
+      <c r="H72">
+        <v>405.6</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>44.3</v>
+      </c>
+      <c r="K72">
+        <v>33.2</v>
+      </c>
+      <c r="L72">
+        <v>11.1</v>
+      </c>
+      <c r="M72">
+        <v>80.76737900000002</v>
+      </c>
+      <c r="N72">
+        <v>-69.66737900000001</v>
+      </c>
+      <c r="O72">
+        <v>-13.23680201</v>
+      </c>
+      <c r="P72">
+        <v>-56.43057699000001</v>
+      </c>
+      <c r="Q72">
+        <v>-23.23057699000001</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1993436928457697</v>
+      </c>
+      <c r="T72">
+        <v>3.429584237137844</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.02611202723317294</v>
+      </c>
+      <c r="W72">
+        <v>0.1789032205972661</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.1374317222798577</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1867793622718172</v>
+      </c>
+      <c r="C73">
+        <v>-205.1326197070434</v>
+      </c>
+      <c r="D73">
+        <v>199.9183802929566</v>
+      </c>
+      <c r="E73">
+        <v>223.451</v>
+      </c>
+      <c r="F73">
+        <v>445.951</v>
+      </c>
+      <c r="G73">
+        <v>40.9</v>
+      </c>
+      <c r="H73">
+        <v>405.6</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>44.3</v>
+      </c>
+      <c r="K73">
+        <v>33.2</v>
+      </c>
+      <c r="L73">
+        <v>11.1</v>
+      </c>
+      <c r="M73">
+        <v>81.92119870000001</v>
+      </c>
+      <c r="N73">
+        <v>-70.8211987</v>
+      </c>
+      <c r="O73">
+        <v>-13.456027753</v>
+      </c>
+      <c r="P73">
+        <v>-57.365170947</v>
+      </c>
+      <c r="Q73">
+        <v>-24.165170947</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.2058969236335548</v>
+      </c>
+      <c r="T73">
+        <v>3.547845762556389</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.0257442522017198</v>
+      </c>
+      <c r="W73">
+        <v>0.1789707808705441</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.1354960642195779</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1885233622718172</v>
+      </c>
+      <c r="C74">
+        <v>-213.3590003249013</v>
+      </c>
+      <c r="D74">
+        <v>197.9729996750987</v>
+      </c>
+      <c r="E74">
+        <v>229.732</v>
+      </c>
+      <c r="F74">
+        <v>452.232</v>
+      </c>
+      <c r="G74">
+        <v>40.9</v>
+      </c>
+      <c r="H74">
+        <v>405.6</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>44.3</v>
+      </c>
+      <c r="K74">
+        <v>33.2</v>
+      </c>
+      <c r="L74">
+        <v>11.1</v>
+      </c>
+      <c r="M74">
+        <v>83.0750184</v>
+      </c>
+      <c r="N74">
+        <v>-71.97501840000001</v>
+      </c>
+      <c r="O74">
+        <v>-13.675253496</v>
+      </c>
+      <c r="P74">
+        <v>-58.29976490400001</v>
+      </c>
+      <c r="Q74">
+        <v>-25.09976490400001</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.2129182423347532</v>
+      </c>
+      <c r="T74">
+        <v>3.674554539790546</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.02538669314336258</v>
+      </c>
+      <c r="W74">
+        <v>0.1790364644695643</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.1336141744387503</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1902673622718172</v>
+      </c>
+      <c r="C75">
+        <v>-221.5478852998438</v>
+      </c>
+      <c r="D75">
+        <v>196.0651147001562</v>
+      </c>
+      <c r="E75">
+        <v>236.013</v>
+      </c>
+      <c r="F75">
+        <v>458.513</v>
+      </c>
+      <c r="G75">
+        <v>40.9</v>
+      </c>
+      <c r="H75">
+        <v>405.6</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>44.3</v>
+      </c>
+      <c r="K75">
+        <v>33.2</v>
+      </c>
+      <c r="L75">
+        <v>11.1</v>
+      </c>
+      <c r="M75">
+        <v>84.2288381</v>
+      </c>
+      <c r="N75">
+        <v>-73.1288381</v>
+      </c>
+      <c r="O75">
+        <v>-13.894479239</v>
+      </c>
+      <c r="P75">
+        <v>-59.234358861</v>
+      </c>
+      <c r="Q75">
+        <v>-26.034358861</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.2204596587175218</v>
+      </c>
+      <c r="T75">
+        <v>3.81064915237538</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.02503893022359049</v>
+      </c>
+      <c r="W75">
+        <v>0.1791003485179264</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.1317838432820553</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1920113622718172</v>
+      </c>
+      <c r="C76">
+        <v>-229.7003483319479</v>
+      </c>
+      <c r="D76">
+        <v>194.1936516680522</v>
+      </c>
+      <c r="E76">
+        <v>242.294</v>
+      </c>
+      <c r="F76">
+        <v>464.794</v>
+      </c>
+      <c r="G76">
+        <v>40.9</v>
+      </c>
+      <c r="H76">
+        <v>405.6</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>44.3</v>
+      </c>
+      <c r="K76">
+        <v>33.2</v>
+      </c>
+      <c r="L76">
+        <v>11.1</v>
+      </c>
+      <c r="M76">
+        <v>85.3826578</v>
+      </c>
+      <c r="N76">
+        <v>-74.28265780000001</v>
+      </c>
+      <c r="O76">
+        <v>-14.113704982</v>
+      </c>
+      <c r="P76">
+        <v>-60.16895281800001</v>
+      </c>
+      <c r="Q76">
+        <v>-26.96895281800001</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.2285811840528112</v>
+      </c>
+      <c r="T76">
+        <v>3.957212581312896</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.02470056630165008</v>
+      </c>
+      <c r="W76">
+        <v>0.1791625059703869</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.1300029805350004</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1937553622718172</v>
+      </c>
+      <c r="C77">
+        <v>-237.8174225145461</v>
+      </c>
+      <c r="D77">
+        <v>192.3575774854539</v>
+      </c>
+      <c r="E77">
+        <v>248.575</v>
+      </c>
+      <c r="F77">
+        <v>471.075</v>
+      </c>
+      <c r="G77">
+        <v>40.9</v>
+      </c>
+      <c r="H77">
+        <v>405.6</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>44.3</v>
+      </c>
+      <c r="K77">
+        <v>33.2</v>
+      </c>
+      <c r="L77">
+        <v>11.1</v>
+      </c>
+      <c r="M77">
+        <v>86.5364775</v>
+      </c>
+      <c r="N77">
+        <v>-75.4364775</v>
+      </c>
+      <c r="O77">
+        <v>-14.332930725</v>
+      </c>
+      <c r="P77">
+        <v>-61.103546775</v>
+      </c>
+      <c r="Q77">
+        <v>-27.903546775</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.2373524314149236</v>
+      </c>
+      <c r="T77">
+        <v>4.115501084565412</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.02437122541762807</v>
+      </c>
+      <c r="W77">
+        <v>0.1792230058907817</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.1282696074612005</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1954993622718172</v>
+      </c>
+      <c r="C78">
+        <v>-245.9001022359025</v>
+      </c>
+      <c r="D78">
+        <v>190.5558977640975</v>
+      </c>
+      <c r="E78">
+        <v>254.856</v>
+      </c>
+      <c r="F78">
+        <v>477.356</v>
+      </c>
+      <c r="G78">
+        <v>40.9</v>
+      </c>
+      <c r="H78">
+        <v>405.6</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>44.3</v>
+      </c>
+      <c r="K78">
+        <v>33.2</v>
+      </c>
+      <c r="L78">
+        <v>11.1</v>
+      </c>
+      <c r="M78">
+        <v>87.6902972</v>
+      </c>
+      <c r="N78">
+        <v>-76.59029720000001</v>
+      </c>
+      <c r="O78">
+        <v>-14.552156468</v>
+      </c>
+      <c r="P78">
+        <v>-62.03814073200001</v>
+      </c>
+      <c r="Q78">
+        <v>-28.83814073200001</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2468546160572121</v>
+      </c>
+      <c r="T78">
+        <v>4.286980296422303</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.02405055139897508</v>
+      </c>
+      <c r="W78">
+        <v>0.1792819137080083</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.1265818494682898</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1972433622718172</v>
+      </c>
+      <c r="C79">
+        <v>-253.9493449750099</v>
+      </c>
+      <c r="D79">
+        <v>188.7876550249901</v>
+      </c>
+      <c r="E79">
+        <v>261.137</v>
+      </c>
+      <c r="F79">
+        <v>483.637</v>
+      </c>
+      <c r="G79">
+        <v>40.9</v>
+      </c>
+      <c r="H79">
+        <v>405.6</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>44.3</v>
+      </c>
+      <c r="K79">
+        <v>33.2</v>
+      </c>
+      <c r="L79">
+        <v>11.1</v>
+      </c>
+      <c r="M79">
+        <v>88.8441169</v>
+      </c>
+      <c r="N79">
+        <v>-77.74411689999999</v>
+      </c>
+      <c r="O79">
+        <v>-14.771382211</v>
+      </c>
+      <c r="P79">
+        <v>-62.97273468899999</v>
+      </c>
+      <c r="Q79">
+        <v>-29.772734689</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2571830776249169</v>
+      </c>
+      <c r="T79">
+        <v>4.473370744092839</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.02373820657561176</v>
+      </c>
+      <c r="W79">
+        <v>0.1793392914520601</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.1249379293453251</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1989873622718172</v>
+      </c>
+      <c r="C80">
+        <v>-261.9660729983233</v>
+      </c>
+      <c r="D80">
+        <v>187.0519270016767</v>
+      </c>
+      <c r="E80">
+        <v>267.418</v>
+      </c>
+      <c r="F80">
+        <v>489.918</v>
+      </c>
+      <c r="G80">
+        <v>40.9</v>
+      </c>
+      <c r="H80">
+        <v>405.6</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>44.3</v>
+      </c>
+      <c r="K80">
+        <v>33.2</v>
+      </c>
+      <c r="L80">
+        <v>11.1</v>
+      </c>
+      <c r="M80">
+        <v>89.9979366</v>
+      </c>
+      <c r="N80">
+        <v>-78.89793660000001</v>
+      </c>
+      <c r="O80">
+        <v>-14.990607954</v>
+      </c>
+      <c r="P80">
+        <v>-63.90732864600001</v>
+      </c>
+      <c r="Q80">
+        <v>-30.70732864600001</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2684504902442313</v>
+      </c>
+      <c r="T80">
+        <v>4.676705777915241</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.02343387059387315</v>
+      </c>
+      <c r="W80">
+        <v>0.1793951979719055</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.1233361610203849</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.2007313622718172</v>
+      </c>
+      <c r="C81">
+        <v>-269.9511749637459</v>
+      </c>
+      <c r="D81">
+        <v>185.3478250362541</v>
+      </c>
+      <c r="E81">
+        <v>273.699</v>
+      </c>
+      <c r="F81">
+        <v>496.199</v>
+      </c>
+      <c r="G81">
+        <v>40.9</v>
+      </c>
+      <c r="H81">
+        <v>405.6</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>44.3</v>
+      </c>
+      <c r="K81">
+        <v>33.2</v>
+      </c>
+      <c r="L81">
+        <v>11.1</v>
+      </c>
+      <c r="M81">
+        <v>91.1517563</v>
+      </c>
+      <c r="N81">
+        <v>-80.05175629999999</v>
+      </c>
+      <c r="O81">
+        <v>-15.209833697</v>
+      </c>
+      <c r="P81">
+        <v>-64.841922603</v>
+      </c>
+      <c r="Q81">
+        <v>-31.641922603</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.280790989779671</v>
+      </c>
+      <c r="T81">
+        <v>4.899406053054062</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.02313723932053299</v>
+      </c>
+      <c r="W81">
+        <v>0.1794496891368181</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.1217749437922789</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.2024753622718172</v>
+      </c>
+      <c r="C82">
+        <v>-277.9055074377308</v>
+      </c>
+      <c r="D82">
+        <v>183.6744925622692</v>
+      </c>
+      <c r="E82">
+        <v>279.98</v>
+      </c>
+      <c r="F82">
+        <v>502.48</v>
+      </c>
+      <c r="G82">
+        <v>40.9</v>
+      </c>
+      <c r="H82">
+        <v>405.6</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>44.3</v>
+      </c>
+      <c r="K82">
+        <v>33.2</v>
+      </c>
+      <c r="L82">
+        <v>11.1</v>
+      </c>
+      <c r="M82">
+        <v>92.305576</v>
+      </c>
+      <c r="N82">
+        <v>-81.20557600000001</v>
+      </c>
+      <c r="O82">
+        <v>-15.42905944</v>
+      </c>
+      <c r="P82">
+        <v>-65.77651656</v>
+      </c>
+      <c r="Q82">
+        <v>-32.57651656000001</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2943655392686546</v>
+      </c>
+      <c r="T82">
+        <v>5.144376355706766</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.02284802382902632</v>
+      </c>
+      <c r="W82">
+        <v>0.1795028180226079</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.1202527569948753</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.2042193622718172</v>
+      </c>
+      <c r="C83">
+        <v>-285.8298963309383</v>
+      </c>
+      <c r="D83">
+        <v>182.0311036690617</v>
+      </c>
+      <c r="E83">
+        <v>286.261</v>
+      </c>
+      <c r="F83">
+        <v>508.761</v>
+      </c>
+      <c r="G83">
+        <v>40.9</v>
+      </c>
+      <c r="H83">
+        <v>405.6</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>44.3</v>
+      </c>
+      <c r="K83">
+        <v>33.2</v>
+      </c>
+      <c r="L83">
+        <v>11.1</v>
+      </c>
+      <c r="M83">
+        <v>93.4593957</v>
+      </c>
+      <c r="N83">
+        <v>-82.35939569999999</v>
+      </c>
+      <c r="O83">
+        <v>-15.648285183</v>
+      </c>
+      <c r="P83">
+        <v>-66.71111051699999</v>
+      </c>
+      <c r="Q83">
+        <v>-33.511110517</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.3093689887038469</v>
+      </c>
+      <c r="T83">
+        <v>5.415133006007122</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.02256594946076674</v>
+      </c>
+      <c r="W83">
+        <v>0.1795546350840571</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.1187681550566672</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2059633622718172</v>
+      </c>
+      <c r="C84">
+        <v>-293.7251382575055</v>
+      </c>
+      <c r="D84">
+        <v>180.4168617424945</v>
+      </c>
+      <c r="E84">
+        <v>292.542</v>
+      </c>
+      <c r="F84">
+        <v>515.042</v>
+      </c>
+      <c r="G84">
+        <v>40.9</v>
+      </c>
+      <c r="H84">
+        <v>405.6</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>44.3</v>
+      </c>
+      <c r="K84">
+        <v>33.2</v>
+      </c>
+      <c r="L84">
+        <v>11.1</v>
+      </c>
+      <c r="M84">
+        <v>94.6132154</v>
+      </c>
+      <c r="N84">
+        <v>-83.51321540000001</v>
+      </c>
+      <c r="O84">
+        <v>-15.867510926</v>
+      </c>
+      <c r="P84">
+        <v>-67.64570447400001</v>
+      </c>
+      <c r="Q84">
+        <v>-34.44570447400002</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.3260394880762828</v>
+      </c>
+      <c r="T84">
+        <v>5.715973728563073</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.02229075495514763</v>
+      </c>
+      <c r="W84">
+        <v>0.1796051883147394</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.1173197629218296</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2077073622718172</v>
+      </c>
+      <c r="C85">
+        <v>-301.592001822628</v>
+      </c>
+      <c r="D85">
+        <v>178.8309981773721</v>
+      </c>
+      <c r="E85">
+        <v>298.8230000000001</v>
+      </c>
+      <c r="F85">
+        <v>521.3230000000001</v>
+      </c>
+      <c r="G85">
+        <v>40.9</v>
+      </c>
+      <c r="H85">
+        <v>405.6</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>44.3</v>
+      </c>
+      <c r="K85">
+        <v>33.2</v>
+      </c>
+      <c r="L85">
+        <v>11.1</v>
+      </c>
+      <c r="M85">
+        <v>95.76703510000002</v>
+      </c>
+      <c r="N85">
+        <v>-84.66703510000002</v>
+      </c>
+      <c r="O85">
+        <v>-16.086736669</v>
+      </c>
+      <c r="P85">
+        <v>-68.58029843100002</v>
+      </c>
+      <c r="Q85">
+        <v>-35.38029843100002</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.3446712226690054</v>
+      </c>
+      <c r="T85">
+        <v>6.052207477302079</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.022022191642435</v>
+      </c>
+      <c r="W85">
+        <v>0.1796545233952847</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.1159062718022894</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2094513622718172</v>
+      </c>
+      <c r="C86">
+        <v>-309.4312288428257</v>
+      </c>
+      <c r="D86">
+        <v>177.2727711571743</v>
+      </c>
+      <c r="E86">
+        <v>305.104</v>
+      </c>
+      <c r="F86">
+        <v>527.604</v>
+      </c>
+      <c r="G86">
+        <v>40.9</v>
+      </c>
+      <c r="H86">
+        <v>405.6</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>44.3</v>
+      </c>
+      <c r="K86">
+        <v>33.2</v>
+      </c>
+      <c r="L86">
+        <v>11.1</v>
+      </c>
+      <c r="M86">
+        <v>96.92085480000001</v>
+      </c>
+      <c r="N86">
+        <v>-85.82085480000001</v>
+      </c>
+      <c r="O86">
+        <v>-16.305962412</v>
+      </c>
+      <c r="P86">
+        <v>-69.51489238800001</v>
+      </c>
+      <c r="Q86">
+        <v>-36.31489238800001</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.3656319240858181</v>
+      </c>
+      <c r="T86">
+        <v>6.430470444633455</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.02176002269431078</v>
+      </c>
+      <c r="W86">
+        <v>0.1797026838310551</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.1145264352332147</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2111953622718172</v>
+      </c>
+      <c r="C87">
+        <v>-317.2435355029651</v>
+      </c>
+      <c r="D87">
+        <v>175.7414644970349</v>
+      </c>
+      <c r="E87">
+        <v>311.385</v>
+      </c>
+      <c r="F87">
+        <v>533.885</v>
+      </c>
+      <c r="G87">
+        <v>40.9</v>
+      </c>
+      <c r="H87">
+        <v>405.6</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>44.3</v>
+      </c>
+      <c r="K87">
+        <v>33.2</v>
+      </c>
+      <c r="L87">
+        <v>11.1</v>
+      </c>
+      <c r="M87">
+        <v>98.0746745</v>
+      </c>
+      <c r="N87">
+        <v>-86.97467449999999</v>
+      </c>
+      <c r="O87">
+        <v>-16.525188155</v>
+      </c>
+      <c r="P87">
+        <v>-70.449486345</v>
+      </c>
+      <c r="Q87">
+        <v>-37.249486345</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3893873856915393</v>
+      </c>
+      <c r="T87">
+        <v>6.859168474275686</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.02150402242731889</v>
+      </c>
+      <c r="W87">
+        <v>0.1797497110801015</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.1131790654069416</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2129393622718172</v>
+      </c>
+      <c r="C88">
+        <v>-325.0296134538268</v>
+      </c>
+      <c r="D88">
+        <v>174.2363865461733</v>
+      </c>
+      <c r="E88">
+        <v>317.6660000000001</v>
+      </c>
+      <c r="F88">
+        <v>540.1660000000001</v>
+      </c>
+      <c r="G88">
+        <v>40.9</v>
+      </c>
+      <c r="H88">
+        <v>405.6</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>44.3</v>
+      </c>
+      <c r="K88">
+        <v>33.2</v>
+      </c>
+      <c r="L88">
+        <v>11.1</v>
+      </c>
+      <c r="M88">
+        <v>99.22849420000001</v>
+      </c>
+      <c r="N88">
+        <v>-88.12849420000001</v>
+      </c>
+      <c r="O88">
+        <v>-16.744413898</v>
+      </c>
+      <c r="P88">
+        <v>-71.384080302</v>
+      </c>
+      <c r="Q88">
+        <v>-38.18408030200001</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.4165364846695064</v>
+      </c>
+      <c r="T88">
+        <v>7.349109079581092</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.02125397565490821</v>
+      </c>
+      <c r="W88">
+        <v>0.1797956446721934</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.1118630297626748</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2146833622718172</v>
+      </c>
+      <c r="C89">
+        <v>-332.7901308537531</v>
+      </c>
+      <c r="D89">
+        <v>172.7568691462469</v>
+      </c>
+      <c r="E89">
+        <v>323.947</v>
+      </c>
+      <c r="F89">
+        <v>546.447</v>
+      </c>
+      <c r="G89">
+        <v>40.9</v>
+      </c>
+      <c r="H89">
+        <v>405.6</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>44.3</v>
+      </c>
+      <c r="K89">
+        <v>33.2</v>
+      </c>
+      <c r="L89">
+        <v>11.1</v>
+      </c>
+      <c r="M89">
+        <v>100.3823139</v>
+      </c>
+      <c r="N89">
+        <v>-89.28231389999999</v>
+      </c>
+      <c r="O89">
+        <v>-16.963639641</v>
+      </c>
+      <c r="P89">
+        <v>-72.31867425899999</v>
+      </c>
+      <c r="Q89">
+        <v>-39.118674259</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.4478623681056223</v>
+      </c>
+      <c r="T89">
+        <v>7.914425162625792</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.02100967708416214</v>
+      </c>
+      <c r="W89">
+        <v>0.1798405223196394</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.1105772478113798</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2164273622718172</v>
+      </c>
+      <c r="C90">
+        <v>-340.5257333576737</v>
+      </c>
+      <c r="D90">
+        <v>171.3022666423263</v>
+      </c>
+      <c r="E90">
+        <v>330.2280000000001</v>
+      </c>
+      <c r="F90">
+        <v>552.7280000000001</v>
+      </c>
+      <c r="G90">
+        <v>40.9</v>
+      </c>
+      <c r="H90">
+        <v>405.6</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>44.3</v>
+      </c>
+      <c r="K90">
+        <v>33.2</v>
+      </c>
+      <c r="L90">
+        <v>11.1</v>
+      </c>
+      <c r="M90">
+        <v>101.5361336</v>
+      </c>
+      <c r="N90">
+        <v>-90.43613360000001</v>
+      </c>
+      <c r="O90">
+        <v>-17.182865384</v>
+      </c>
+      <c r="P90">
+        <v>-73.25326821600001</v>
+      </c>
+      <c r="Q90">
+        <v>-40.05326821600001</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.4844092321144241</v>
+      </c>
+      <c r="T90">
+        <v>8.573960592844607</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.02077093075366029</v>
+      </c>
+      <c r="W90">
+        <v>0.1798843800205526</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.1093206881771595</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2181713622718172</v>
+      </c>
+      <c r="C91">
+        <v>-348.2370450565816</v>
+      </c>
+      <c r="D91">
+        <v>169.8719549434184</v>
+      </c>
+      <c r="E91">
+        <v>336.509</v>
+      </c>
+      <c r="F91">
+        <v>559.009</v>
+      </c>
+      <c r="G91">
+        <v>40.9</v>
+      </c>
+      <c r="H91">
+        <v>405.6</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>44.3</v>
+      </c>
+      <c r="K91">
+        <v>33.2</v>
+      </c>
+      <c r="L91">
+        <v>11.1</v>
+      </c>
+      <c r="M91">
+        <v>102.6899533</v>
+      </c>
+      <c r="N91">
+        <v>-91.58995329999999</v>
+      </c>
+      <c r="O91">
+        <v>-17.402091127</v>
+      </c>
+      <c r="P91">
+        <v>-74.18786217299998</v>
+      </c>
+      <c r="Q91">
+        <v>-40.98786217299999</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.5276009804884627</v>
+      </c>
+      <c r="T91">
+        <v>9.353411555830482</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.02053754950923714</v>
+      </c>
+      <c r="W91">
+        <v>0.1799272521551532</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.1080923658380903</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2199153622718172</v>
+      </c>
+      <c r="C92">
+        <v>-355.9246693703341</v>
+      </c>
+      <c r="D92">
+        <v>168.4653306296659</v>
+      </c>
+      <c r="E92">
+        <v>342.7900000000001</v>
+      </c>
+      <c r="F92">
+        <v>565.2900000000001</v>
+      </c>
+      <c r="G92">
+        <v>40.9</v>
+      </c>
+      <c r="H92">
+        <v>405.6</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>44.3</v>
+      </c>
+      <c r="K92">
+        <v>33.2</v>
+      </c>
+      <c r="L92">
+        <v>11.1</v>
+      </c>
+      <c r="M92">
+        <v>103.843773</v>
+      </c>
+      <c r="N92">
+        <v>-92.743773</v>
+      </c>
+      <c r="O92">
+        <v>-17.62131687</v>
+      </c>
+      <c r="P92">
+        <v>-75.12245613</v>
+      </c>
+      <c r="Q92">
+        <v>-41.92245613000001</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.5794310785373091</v>
+      </c>
+      <c r="T92">
+        <v>10.28875271141353</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.02030935451469006</v>
+      </c>
+      <c r="W92">
+        <v>0.1799691715756514</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.1068913395510004</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2216593622718172</v>
+      </c>
+      <c r="C93">
+        <v>-363.5891898964603</v>
+      </c>
+      <c r="D93">
+        <v>167.0818101035397</v>
+      </c>
+      <c r="E93">
+        <v>349.071</v>
+      </c>
+      <c r="F93">
+        <v>571.571</v>
+      </c>
+      <c r="G93">
+        <v>40.9</v>
+      </c>
+      <c r="H93">
+        <v>405.6</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>44.3</v>
+      </c>
+      <c r="K93">
+        <v>33.2</v>
+      </c>
+      <c r="L93">
+        <v>11.1</v>
+      </c>
+      <c r="M93">
+        <v>104.9975927</v>
+      </c>
+      <c r="N93">
+        <v>-93.89759270000002</v>
+      </c>
+      <c r="O93">
+        <v>-17.840542613</v>
+      </c>
+      <c r="P93">
+        <v>-76.05705008700002</v>
+      </c>
+      <c r="Q93">
+        <v>-42.85705008700003</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.6427789761525656</v>
+      </c>
+      <c r="T93">
+        <v>11.43194745712615</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.02008617479474841</v>
+      </c>
+      <c r="W93">
+        <v>0.1800101696902047</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.1057167094460442</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2234033622718172</v>
+      </c>
+      <c r="C94">
+        <v>-371.2311712174853</v>
+      </c>
+      <c r="D94">
+        <v>165.7208287825148</v>
+      </c>
+      <c r="E94">
+        <v>355.3520000000001</v>
+      </c>
+      <c r="F94">
+        <v>577.8520000000001</v>
+      </c>
+      <c r="G94">
+        <v>40.9</v>
+      </c>
+      <c r="H94">
+        <v>405.6</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>44.3</v>
+      </c>
+      <c r="K94">
+        <v>33.2</v>
+      </c>
+      <c r="L94">
+        <v>11.1</v>
+      </c>
+      <c r="M94">
+        <v>106.1514124</v>
+      </c>
+      <c r="N94">
+        <v>-95.0514124</v>
+      </c>
+      <c r="O94">
+        <v>-18.059768356</v>
+      </c>
+      <c r="P94">
+        <v>-76.991644044</v>
+      </c>
+      <c r="Q94">
+        <v>-43.791644044</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.7219638481716366</v>
+      </c>
+      <c r="T94">
+        <v>12.86094088926692</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.01986784680784897</v>
+      </c>
+      <c r="W94">
+        <v>0.1800502765413982</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.1045676147781526</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2251473622718172</v>
+      </c>
+      <c r="C95">
+        <v>-378.851159669115</v>
+      </c>
+      <c r="D95">
+        <v>164.381840330885</v>
+      </c>
+      <c r="E95">
+        <v>361.633</v>
+      </c>
+      <c r="F95">
+        <v>584.133</v>
+      </c>
+      <c r="G95">
+        <v>40.9</v>
+      </c>
+      <c r="H95">
+        <v>405.6</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>44.3</v>
+      </c>
+      <c r="K95">
+        <v>33.2</v>
+      </c>
+      <c r="L95">
+        <v>11.1</v>
+      </c>
+      <c r="M95">
+        <v>107.3052321</v>
+      </c>
+      <c r="N95">
+        <v>-96.20523210000002</v>
+      </c>
+      <c r="O95">
+        <v>-18.278994099</v>
+      </c>
+      <c r="P95">
+        <v>-77.92623800100002</v>
+      </c>
+      <c r="Q95">
+        <v>-44.72623800100002</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.8237729693390133</v>
+      </c>
+      <c r="T95">
+        <v>14.69821815916219</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.01965421404647425</v>
+      </c>
+      <c r="W95">
+        <v>0.1800895208796627</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.1034432318235486</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2268913622718172</v>
+      </c>
+      <c r="C96">
+        <v>-386.4496840714805</v>
+      </c>
+      <c r="D96">
+        <v>163.0643159285195</v>
+      </c>
+      <c r="E96">
+        <v>367.9140000000001</v>
+      </c>
+      <c r="F96">
+        <v>590.4140000000001</v>
+      </c>
+      <c r="G96">
+        <v>40.9</v>
+      </c>
+      <c r="H96">
+        <v>405.6</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>44.3</v>
+      </c>
+      <c r="K96">
+        <v>33.2</v>
+      </c>
+      <c r="L96">
+        <v>11.1</v>
+      </c>
+      <c r="M96">
+        <v>108.4590518</v>
+      </c>
+      <c r="N96">
+        <v>-97.35905180000003</v>
+      </c>
+      <c r="O96">
+        <v>-18.498219842</v>
+      </c>
+      <c r="P96">
+        <v>-78.86083195800003</v>
+      </c>
+      <c r="Q96">
+        <v>-45.66083195800004</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.9595184642288492</v>
+      </c>
+      <c r="T96">
+        <v>17.14792118568923</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.01944512666300112</v>
+      </c>
+      <c r="W96">
+        <v>0.1801279302320067</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.1023427719105322</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2286353622718172</v>
+      </c>
+      <c r="C97">
+        <v>-394.0272564254947</v>
+      </c>
+      <c r="D97">
+        <v>161.7677435745053</v>
+      </c>
+      <c r="E97">
+        <v>374.1950000000001</v>
+      </c>
+      <c r="F97">
+        <v>596.6950000000001</v>
+      </c>
+      <c r="G97">
+        <v>40.9</v>
+      </c>
+      <c r="H97">
+        <v>405.6</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>44.3</v>
+      </c>
+      <c r="K97">
+        <v>33.2</v>
+      </c>
+      <c r="L97">
+        <v>11.1</v>
+      </c>
+      <c r="M97">
+        <v>109.6128715</v>
+      </c>
+      <c r="N97">
+        <v>-98.51287150000002</v>
+      </c>
+      <c r="O97">
+        <v>-18.717445585</v>
+      </c>
+      <c r="P97">
+        <v>-79.79542591500001</v>
+      </c>
+      <c r="Q97">
+        <v>-46.59542591500001</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.14956215707462</v>
+      </c>
+      <c r="T97">
+        <v>20.57750542282708</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.01924044111918006</v>
+      </c>
+      <c r="W97">
+        <v>0.1801655309664066</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.1012654795746318</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2303793622718172</v>
+      </c>
+      <c r="C98">
+        <v>-401.5843725762508</v>
+      </c>
+      <c r="D98">
+        <v>160.4916274237492</v>
+      </c>
+      <c r="E98">
+        <v>380.476</v>
+      </c>
+      <c r="F98">
+        <v>602.976</v>
+      </c>
+      <c r="G98">
+        <v>40.9</v>
+      </c>
+      <c r="H98">
+        <v>405.6</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>44.3</v>
+      </c>
+      <c r="K98">
+        <v>33.2</v>
+      </c>
+      <c r="L98">
+        <v>11.1</v>
+      </c>
+      <c r="M98">
+        <v>110.7666912</v>
+      </c>
+      <c r="N98">
+        <v>-99.6666912</v>
+      </c>
+      <c r="O98">
+        <v>-18.936671328</v>
+      </c>
+      <c r="P98">
+        <v>-80.730019872</v>
+      </c>
+      <c r="Q98">
+        <v>-47.530019872</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.434627696343271</v>
+      </c>
+      <c r="T98">
+        <v>25.7218817785338</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.01904001985752194</v>
+      </c>
+      <c r="W98">
+        <v>0.1802023483521732</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.1002106308290628</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2321233622718172</v>
+      </c>
+      <c r="C99">
+        <v>-409.1215128452662</v>
+      </c>
+      <c r="D99">
+        <v>159.2354871547339</v>
+      </c>
+      <c r="E99">
+        <v>386.7570000000001</v>
+      </c>
+      <c r="F99">
+        <v>609.2570000000001</v>
+      </c>
+      <c r="G99">
+        <v>40.9</v>
+      </c>
+      <c r="H99">
+        <v>405.6</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>44.3</v>
+      </c>
+      <c r="K99">
+        <v>33.2</v>
+      </c>
+      <c r="L99">
+        <v>11.1</v>
+      </c>
+      <c r="M99">
+        <v>111.9205109</v>
+      </c>
+      <c r="N99">
+        <v>-100.8205109</v>
+      </c>
+      <c r="O99">
+        <v>-19.155897071</v>
+      </c>
+      <c r="P99">
+        <v>-81.66461382900002</v>
+      </c>
+      <c r="Q99">
+        <v>-48.46461382900002</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.909736928457695</v>
+      </c>
+      <c r="T99">
+        <v>34.2958423713784</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.0188437309930114</v>
+      </c>
+      <c r="W99">
+        <v>0.1802384066165838</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.09917753154216524</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2338673622718172</v>
+      </c>
+      <c r="C100">
+        <v>-416.6391426332659</v>
+      </c>
+      <c r="D100">
+        <v>157.9988573667341</v>
+      </c>
+      <c r="E100">
+        <v>393.038</v>
+      </c>
+      <c r="F100">
+        <v>615.538</v>
+      </c>
+      <c r="G100">
+        <v>40.9</v>
+      </c>
+      <c r="H100">
+        <v>405.6</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>44.3</v>
+      </c>
+      <c r="K100">
+        <v>33.2</v>
+      </c>
+      <c r="L100">
+        <v>11.1</v>
+      </c>
+      <c r="M100">
+        <v>113.0743306</v>
+      </c>
+      <c r="N100">
+        <v>-101.9743306</v>
+      </c>
+      <c r="O100">
+        <v>-19.375122814</v>
+      </c>
+      <c r="P100">
+        <v>-82.59920778599999</v>
+      </c>
+      <c r="Q100">
+        <v>-49.399207786</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.859955392686543</v>
+      </c>
+      <c r="T100">
+        <v>51.4437635570676</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.01865144802369496</v>
+      </c>
+      <c r="W100">
+        <v>0.1802737289980472</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.09816551591418399</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2356113622718172</v>
+      </c>
+      <c r="C101">
+        <v>-424.1377129950961</v>
+      </c>
+      <c r="D101">
+        <v>156.7812870049039</v>
+      </c>
+      <c r="E101">
+        <v>399.3190000000001</v>
+      </c>
+      <c r="F101">
+        <v>621.8190000000001</v>
+      </c>
+      <c r="G101">
+        <v>40.9</v>
+      </c>
+      <c r="H101">
+        <v>405.6</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>44.3</v>
+      </c>
+      <c r="K101">
+        <v>33.2</v>
+      </c>
+      <c r="L101">
+        <v>11.1</v>
+      </c>
+      <c r="M101">
+        <v>114.2281503</v>
+      </c>
+      <c r="N101">
+        <v>-103.1281503</v>
+      </c>
+      <c r="O101">
+        <v>-19.594348557</v>
+      </c>
+      <c r="P101">
+        <v>-83.53380174300001</v>
+      </c>
+      <c r="Q101">
+        <v>-50.33380174300002</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>5.710610785373085</v>
+      </c>
+      <c r="T101">
+        <v>102.8875271141352</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.01846304955880915</v>
+      </c>
+      <c r="W101">
+        <v>0.1803083377960468</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.0971739450463639</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
